--- a/BackTest/2019-11-02 BackTest HC.xlsx
+++ b/BackTest/2019-11-02 BackTest HC.xlsx
@@ -1151,20 +1151,14 @@
         <v>2182.883333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>2132</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1198,14 +1192,12 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2118</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2134</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2134</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1239,12 +1231,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>2118</v>
+      </c>
+      <c r="K24" t="n">
         <v>2134</v>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1280,12 +1274,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2119</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>2134</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2134</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1315,15 +1311,15 @@
         <v>2179.283333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>2135</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2134</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1356,15 +1352,15 @@
         <v>2178.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2136</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>2134</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1397,15 +1393,15 @@
         <v>2177.333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2134</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1438,15 +1434,15 @@
         <v>2176.416666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>2140</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2134</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1479,15 +1475,15 @@
         <v>2175.566666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>2145</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>2134</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1520,15 +1516,15 @@
         <v>2174.966666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>2145</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>2134</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1561,15 +1557,15 @@
         <v>2174.516666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>2164</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2134</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1602,15 +1598,15 @@
         <v>2173.733333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>2163</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>2134</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1643,15 +1639,15 @@
         <v>2173.133333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>2169</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>2134</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1684,15 +1680,15 @@
         <v>2172.516666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>2168</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2134</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1731,7 +1727,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>2134</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1770,7 +1768,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>2134</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1809,7 +1809,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>2134</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1848,7 +1850,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>2134</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1887,7 +1891,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>2134</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1926,7 +1932,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>2134</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1959,15 +1967,15 @@
         <v>2165.433333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>2159</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>2134</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,7 +2014,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2134</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,7 +2055,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>2134</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,7 +2096,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>2134</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2123,7 +2137,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>2134</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2162,7 +2178,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>2134</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,7 +2219,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>2134</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,15 +2254,15 @@
         <v>2159.216666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>2160</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>2134</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,15 +2295,15 @@
         <v>2158.55</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>2159</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>2134</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,15 +2336,15 @@
         <v>2157.966666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>2165</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>2134</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2357,15 +2377,15 @@
         <v>2157.466666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>2165</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>2134</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2404,7 +2424,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>2134</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2443,7 +2465,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>2134</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,7 +2506,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>2134</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2521,7 +2547,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>2134</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,7 +2588,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>2134</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,7 +2629,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>2134</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2638,7 +2670,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>2134</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2677,7 +2711,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>2134</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2716,7 +2752,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>2134</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2755,7 +2793,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>2134</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,7 +2834,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>2134</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2833,7 +2875,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>2134</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,7 +2916,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>2134</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,7 +2957,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>2134</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,7 +2998,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>2134</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,7 +3039,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>2134</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,7 +3080,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>2134</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,7 +3121,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>2134</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,7 +3162,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>2134</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3145,7 +3203,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>2134</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,7 +3244,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>2134</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,7 +3285,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>2134</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3262,7 +3326,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>2134</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,7 +3367,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>2134</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,15 +3402,15 @@
         <v>2157.366666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>2155</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>2134</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,15 +3443,15 @@
         <v>2157.216666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>2152</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>2134</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,15 +3484,15 @@
         <v>2157.416666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>2152</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>2134</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,15 +3525,15 @@
         <v>2158.016666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>2169</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2134</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,15 +3566,15 @@
         <v>2158.383333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>2155</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>2134</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3545,7 +3613,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>2134</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,15 +3648,15 @@
         <v>2159.5</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>2169</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>2134</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,15 +3689,15 @@
         <v>2159.883333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>2157</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2134</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,7 +3736,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2134</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,15 +3771,15 @@
         <v>2160.9</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2134</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,7 +3818,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2134</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3779,15 +3853,15 @@
         <v>2162.016666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2170</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2134</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,7 +3900,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2134</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,7 +3941,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2134</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,7 +3982,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>2134</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,7 +4023,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2134</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,7 +4064,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2134</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,7 +4105,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2134</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,7 +4146,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2134</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,7 +4187,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2134</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,7 +4228,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>2134</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,16 +4266,20 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2134</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4211,11 +4307,17 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2134</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4348,17 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2134</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4281,11 +4389,17 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2134</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4319,8 +4433,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2134</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4354,8 +4474,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2134</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4389,10 +4515,16 @@
         <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2134</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>1.035768509840675</v>
       </c>
     </row>
     <row r="105">
@@ -4421,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4456,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -6238,13 +6370,17 @@
         <v>2183.116666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2161</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2161</v>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
@@ -6279,8 +6415,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6308,14 +6450,22 @@
         <v>2181.766666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2151</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6349,8 +6499,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6384,8 +6540,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6419,8 +6581,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6454,8 +6622,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6489,8 +6663,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6524,8 +6704,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6594,8 +6786,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6629,8 +6827,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6664,8 +6868,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6699,8 +6909,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6734,8 +6950,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +6991,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6804,8 +7032,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6839,8 +7073,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7114,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6909,8 +7155,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6944,8 +7196,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6979,8 +7237,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7014,8 +7278,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7049,8 +7319,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7084,8 +7360,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7119,8 +7401,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7154,8 +7442,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +7483,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7224,8 +7524,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7259,8 +7565,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7294,8 +7606,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>2161</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7323,18 +7641,20 @@
         <v>2164.083333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>2145</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>2145</v>
-      </c>
-      <c r="L188" t="inlineStr"/>
+        <v>2161</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7362,20 +7682,18 @@
         <v>2163.483333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>2145</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -7405,20 +7723,18 @@
         <v>2162.966666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>2140</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -7448,16 +7764,14 @@
         <v>2162.216666666667</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>2141</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7491,16 +7805,14 @@
         <v>2161.45</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>2141</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7534,16 +7846,14 @@
         <v>2160.933333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>2147</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7577,16 +7887,14 @@
         <v>2160.616666666667</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>2150</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7620,16 +7928,14 @@
         <v>2160.266666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>2150</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7663,16 +7969,14 @@
         <v>2159.9</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>2149</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7706,16 +8010,14 @@
         <v>2159.4</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>2141</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7749,16 +8051,14 @@
         <v>2158.916666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>2149</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7792,16 +8092,14 @@
         <v>2158.516666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>2153</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7835,16 +8133,14 @@
         <v>2158.15</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>2156</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7878,16 +8174,14 @@
         <v>2157.966666666667</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>2160</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7921,16 +8215,14 @@
         <v>2157.483333333333</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>2146</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7964,16 +8256,14 @@
         <v>2157.4</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>2163</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8007,16 +8297,14 @@
         <v>2157.5</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>2167</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8050,16 +8338,14 @@
         <v>2157.5</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>2157</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8093,16 +8379,14 @@
         <v>2157.25</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>2162</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8136,16 +8420,14 @@
         <v>2157.55</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>2159</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8179,16 +8461,14 @@
         <v>2157.883333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8222,16 +8502,14 @@
         <v>2157.966666666667</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>2161</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8265,16 +8543,14 @@
         <v>2158.05</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>2150</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8308,16 +8584,14 @@
         <v>2158.4</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8351,16 +8625,14 @@
         <v>2158.733333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>2167</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8394,16 +8666,14 @@
         <v>2159.066666666667</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>2169</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8444,7 +8714,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8485,7 +8755,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8526,7 +8796,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8567,7 +8837,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8608,7 +8878,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8649,7 +8919,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8690,7 +8960,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8731,7 +9001,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8772,7 +9042,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8813,7 +9083,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8854,7 +9124,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8895,7 +9165,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8929,16 +9199,14 @@
         <v>2158.983333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>2150</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8972,16 +9240,14 @@
         <v>2158.75</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>2158</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9015,16 +9281,14 @@
         <v>2158.55</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>2165</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9058,16 +9322,14 @@
         <v>2158.633333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>2167</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>

--- a/BackTest/2019-11-02 BackTest HC.xlsx
+++ b/BackTest/2019-11-02 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2155</v>
+        <v>2172</v>
       </c>
       <c r="C2" t="n">
-        <v>2154</v>
+        <v>2172</v>
       </c>
       <c r="D2" t="n">
-        <v>2155</v>
+        <v>2172</v>
       </c>
       <c r="E2" t="n">
-        <v>2154</v>
+        <v>2172</v>
       </c>
       <c r="F2" t="n">
-        <v>88.68219999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2183.9</v>
+        <v>2183.85</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2164</v>
+        <v>2155</v>
       </c>
       <c r="C3" t="n">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="D3" t="n">
-        <v>2164</v>
+        <v>2155</v>
       </c>
       <c r="E3" t="n">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>88.68219999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>2184.183333333333</v>
+        <v>2183.9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2172</v>
+        <v>2164</v>
       </c>
       <c r="C4" t="n">
-        <v>2172</v>
+        <v>2164</v>
       </c>
       <c r="D4" t="n">
-        <v>2172</v>
+        <v>2164</v>
       </c>
       <c r="E4" t="n">
-        <v>2172</v>
+        <v>2164</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2184.466666666667</v>
+        <v>2184.183333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2182</v>
+        <v>2172</v>
       </c>
       <c r="C5" t="n">
-        <v>2182</v>
+        <v>2172</v>
       </c>
       <c r="D5" t="n">
-        <v>2182</v>
+        <v>2172</v>
       </c>
       <c r="E5" t="n">
-        <v>2182</v>
+        <v>2172</v>
       </c>
       <c r="F5" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2184.916666666667</v>
+        <v>2184.466666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>2182</v>
       </c>
       <c r="C6" t="n">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="D6" t="n">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="E6" t="n">
-        <v>2157</v>
+        <v>2182</v>
       </c>
       <c r="F6" t="n">
-        <v>437.1297</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2185.45</v>
+        <v>2184.916666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="C7" t="n">
-        <v>2167</v>
+        <v>2187</v>
       </c>
       <c r="D7" t="n">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E7" t="n">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.855</v>
+        <v>437.1297</v>
       </c>
       <c r="G7" t="n">
-        <v>2185.733333333333</v>
+        <v>2185.45</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="C8" t="n">
-        <v>2184</v>
+        <v>2167</v>
       </c>
       <c r="D8" t="n">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="E8" t="n">
-        <v>2184</v>
+        <v>2167</v>
       </c>
       <c r="F8" t="n">
-        <v>20.1711</v>
+        <v>0.855</v>
       </c>
       <c r="G8" t="n">
-        <v>2186.116666666667</v>
+        <v>2185.733333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>2184</v>
       </c>
       <c r="F9" t="n">
-        <v>14.6682</v>
+        <v>20.1711</v>
       </c>
       <c r="G9" t="n">
-        <v>2186.183333333333</v>
+        <v>2186.116666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2168</v>
+        <v>2184</v>
       </c>
       <c r="C10" t="n">
-        <v>2168</v>
+        <v>2184</v>
       </c>
       <c r="D10" t="n">
-        <v>2168</v>
+        <v>2184</v>
       </c>
       <c r="E10" t="n">
-        <v>2168</v>
+        <v>2184</v>
       </c>
       <c r="F10" t="n">
-        <v>28.0752</v>
+        <v>14.6682</v>
       </c>
       <c r="G10" t="n">
-        <v>2186.166666666667</v>
+        <v>2186.183333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2160</v>
+        <v>2168</v>
       </c>
       <c r="C11" t="n">
-        <v>2160</v>
+        <v>2168</v>
       </c>
       <c r="D11" t="n">
-        <v>2160</v>
+        <v>2168</v>
       </c>
       <c r="E11" t="n">
-        <v>2160</v>
+        <v>2168</v>
       </c>
       <c r="F11" t="n">
-        <v>63.4033</v>
+        <v>28.0752</v>
       </c>
       <c r="G11" t="n">
-        <v>2185.916666666667</v>
+        <v>2186.166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>2160</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>63.4033</v>
       </c>
       <c r="G12" t="n">
-        <v>2185.666666666667</v>
+        <v>2185.916666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C13" t="n">
         <v>2160</v>
       </c>
       <c r="D13" t="n">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E13" t="n">
         <v>2160</v>
       </c>
       <c r="F13" t="n">
-        <v>24.7391</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2185.75</v>
+        <v>2185.666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2152</v>
+        <v>2161</v>
       </c>
       <c r="C14" t="n">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="D14" t="n">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="E14" t="n">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="F14" t="n">
-        <v>214.10657691</v>
+        <v>24.7391</v>
       </c>
       <c r="G14" t="n">
-        <v>2185.5</v>
+        <v>2185.75</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="C15" t="n">
-        <v>2149</v>
+        <v>2157</v>
       </c>
       <c r="D15" t="n">
-        <v>2149</v>
+        <v>2157</v>
       </c>
       <c r="E15" t="n">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="F15" t="n">
-        <v>10.5002</v>
+        <v>214.10657691</v>
       </c>
       <c r="G15" t="n">
-        <v>2185.116666666667</v>
+        <v>2185.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="C16" t="n">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="D16" t="n">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="E16" t="n">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="F16" t="n">
-        <v>241.0499</v>
+        <v>10.5002</v>
       </c>
       <c r="G16" t="n">
-        <v>2184.983333333333</v>
+        <v>2185.116666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>2145</v>
       </c>
       <c r="F17" t="n">
-        <v>164.437</v>
+        <v>241.0499</v>
       </c>
       <c r="G17" t="n">
-        <v>2184.783333333333</v>
+        <v>2184.983333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2160</v>
+        <v>2145</v>
       </c>
       <c r="C18" t="n">
-        <v>2161</v>
+        <v>2145</v>
       </c>
       <c r="D18" t="n">
-        <v>2161</v>
+        <v>2145</v>
       </c>
       <c r="E18" t="n">
-        <v>2160</v>
+        <v>2145</v>
       </c>
       <c r="F18" t="n">
-        <v>19.428</v>
+        <v>164.437</v>
       </c>
       <c r="G18" t="n">
-        <v>2184.666666666667</v>
+        <v>2184.783333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2144</v>
+        <v>2160</v>
       </c>
       <c r="C19" t="n">
-        <v>2140</v>
+        <v>2161</v>
       </c>
       <c r="D19" t="n">
-        <v>2144</v>
+        <v>2161</v>
       </c>
       <c r="E19" t="n">
-        <v>2140</v>
+        <v>2160</v>
       </c>
       <c r="F19" t="n">
-        <v>167.4818</v>
+        <v>19.428</v>
       </c>
       <c r="G19" t="n">
-        <v>2184.5</v>
+        <v>2184.666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2133</v>
+        <v>2144</v>
       </c>
       <c r="C20" t="n">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="D20" t="n">
-        <v>2133</v>
+        <v>2144</v>
       </c>
       <c r="E20" t="n">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="F20" t="n">
-        <v>16.2936</v>
+        <v>167.4818</v>
       </c>
       <c r="G20" t="n">
-        <v>2184.133333333333</v>
+        <v>2184.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>2133</v>
       </c>
       <c r="F21" t="n">
-        <v>104.09</v>
+        <v>16.2936</v>
       </c>
       <c r="G21" t="n">
-        <v>2183.5</v>
+        <v>2184.133333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,31 +1133,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="C22" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D22" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E22" t="n">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="F22" t="n">
-        <v>48.2829</v>
+        <v>104.09</v>
       </c>
       <c r="G22" t="n">
-        <v>2182.883333333333</v>
+        <v>2183.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2133</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2133</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1168,22 +1172,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2118</v>
+        <v>2132</v>
       </c>
       <c r="C23" t="n">
-        <v>2118</v>
+        <v>2134</v>
       </c>
       <c r="D23" t="n">
-        <v>2118</v>
+        <v>2134</v>
       </c>
       <c r="E23" t="n">
-        <v>2118</v>
+        <v>2132</v>
       </c>
       <c r="F23" t="n">
-        <v>304.5855</v>
+        <v>48.2829</v>
       </c>
       <c r="G23" t="n">
-        <v>2181.683333333333</v>
+        <v>2182.883333333333</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1192,12 +1196,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="K23" t="n">
-        <v>2134</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>2133</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1207,38 +1215,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2134</v>
+        <v>2118</v>
       </c>
       <c r="C24" t="n">
-        <v>2134</v>
+        <v>2118</v>
       </c>
       <c r="D24" t="n">
-        <v>2134</v>
+        <v>2118</v>
       </c>
       <c r="E24" t="n">
-        <v>2134</v>
+        <v>2118</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1</v>
+        <v>304.5855</v>
       </c>
       <c r="G24" t="n">
-        <v>2180.783333333333</v>
+        <v>2181.683333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>2118</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1250,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2119</v>
+        <v>2134</v>
       </c>
       <c r="C25" t="n">
-        <v>2117</v>
+        <v>2134</v>
       </c>
       <c r="D25" t="n">
-        <v>2119</v>
+        <v>2134</v>
       </c>
       <c r="E25" t="n">
-        <v>2117</v>
+        <v>2134</v>
       </c>
       <c r="F25" t="n">
-        <v>1514.439</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2180.2</v>
+        <v>2180.783333333333</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1274,14 +1280,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2134</v>
+        <v>2118</v>
       </c>
       <c r="K25" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1293,22 +1299,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2135</v>
+        <v>2119</v>
       </c>
       <c r="C26" t="n">
-        <v>2135</v>
+        <v>2117</v>
       </c>
       <c r="D26" t="n">
-        <v>2135</v>
+        <v>2119</v>
       </c>
       <c r="E26" t="n">
-        <v>2135</v>
+        <v>2117</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>1514.439</v>
       </c>
       <c r="G26" t="n">
-        <v>2179.283333333333</v>
+        <v>2180.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1318,7 +1324,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1334,22 +1340,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C27" t="n">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D27" t="n">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E27" t="n">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>2178.3</v>
+        <v>2179.283333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1359,7 +1365,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1375,22 +1381,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C28" t="n">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D28" t="n">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E28" t="n">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="F28" t="n">
         <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>2177.333333333333</v>
+        <v>2178.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1400,7 +1406,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1416,22 +1422,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="C29" t="n">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="D29" t="n">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="E29" t="n">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="F29" t="n">
         <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>2176.416666666667</v>
+        <v>2177.333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1441,7 +1447,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1457,22 +1463,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="C30" t="n">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="D30" t="n">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="E30" t="n">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="F30" t="n">
-        <v>37.1838</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2175.566666666667</v>
+        <v>2176.416666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,7 +1488,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1501,19 +1507,19 @@
         <v>2145</v>
       </c>
       <c r="C31" t="n">
-        <v>2164</v>
+        <v>2145</v>
       </c>
       <c r="D31" t="n">
-        <v>2164</v>
+        <v>2145</v>
       </c>
       <c r="E31" t="n">
         <v>2145</v>
       </c>
       <c r="F31" t="n">
-        <v>53.0329</v>
+        <v>37.1838</v>
       </c>
       <c r="G31" t="n">
-        <v>2174.966666666667</v>
+        <v>2175.566666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1523,7 +1529,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1539,22 +1545,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C32" t="n">
         <v>2164</v>
       </c>
-      <c r="C32" t="n">
-        <v>2173</v>
-      </c>
       <c r="D32" t="n">
-        <v>2174</v>
+        <v>2164</v>
       </c>
       <c r="E32" t="n">
-        <v>2164</v>
+        <v>2145</v>
       </c>
       <c r="F32" t="n">
-        <v>305.9096</v>
+        <v>53.0329</v>
       </c>
       <c r="G32" t="n">
-        <v>2174.516666666667</v>
+        <v>2174.966666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1564,7 +1570,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1580,22 +1586,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="C33" t="n">
-        <v>2157</v>
+        <v>2173</v>
       </c>
       <c r="D33" t="n">
-        <v>2163</v>
+        <v>2174</v>
       </c>
       <c r="E33" t="n">
-        <v>2157</v>
+        <v>2164</v>
       </c>
       <c r="F33" t="n">
-        <v>143.8767</v>
+        <v>305.9096</v>
       </c>
       <c r="G33" t="n">
-        <v>2173.733333333333</v>
+        <v>2174.516666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1621,22 +1627,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="C34" t="n">
-        <v>2169</v>
+        <v>2157</v>
       </c>
       <c r="D34" t="n">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="E34" t="n">
-        <v>2169</v>
+        <v>2157</v>
       </c>
       <c r="F34" t="n">
-        <v>651.0027</v>
+        <v>143.8767</v>
       </c>
       <c r="G34" t="n">
-        <v>2173.133333333333</v>
+        <v>2173.733333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1646,7 +1652,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1662,22 +1668,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="C35" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="D35" t="n">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="E35" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="F35" t="n">
-        <v>123.7056</v>
+        <v>651.0027</v>
       </c>
       <c r="G35" t="n">
-        <v>2172.516666666667</v>
+        <v>2173.133333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1687,7 +1693,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1703,22 +1709,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="C36" t="n">
-        <v>2161</v>
+        <v>2167</v>
       </c>
       <c r="D36" t="n">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="E36" t="n">
-        <v>2161</v>
+        <v>2167</v>
       </c>
       <c r="F36" t="n">
-        <v>83.75</v>
+        <v>123.7056</v>
       </c>
       <c r="G36" t="n">
-        <v>2171.5</v>
+        <v>2172.516666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1728,7 +1734,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1747,19 +1753,19 @@
         <v>2161</v>
       </c>
       <c r="C37" t="n">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D37" t="n">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E37" t="n">
         <v>2161</v>
       </c>
       <c r="F37" t="n">
-        <v>411.7039</v>
+        <v>83.75</v>
       </c>
       <c r="G37" t="n">
-        <v>2170.416666666667</v>
+        <v>2171.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1769,7 +1775,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1785,22 +1791,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="C38" t="n">
-        <v>2154</v>
+        <v>2162</v>
       </c>
       <c r="D38" t="n">
-        <v>2156</v>
+        <v>2162</v>
       </c>
       <c r="E38" t="n">
-        <v>2154</v>
+        <v>2161</v>
       </c>
       <c r="F38" t="n">
-        <v>392.0944</v>
+        <v>411.7039</v>
       </c>
       <c r="G38" t="n">
-        <v>2169.616666666667</v>
+        <v>2170.416666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1810,7 +1816,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1826,22 +1832,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>2156</v>
+      </c>
+      <c r="C39" t="n">
         <v>2154</v>
       </c>
-      <c r="C39" t="n">
-        <v>2155</v>
-      </c>
       <c r="D39" t="n">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="E39" t="n">
         <v>2154</v>
       </c>
       <c r="F39" t="n">
-        <v>330</v>
+        <v>392.0944</v>
       </c>
       <c r="G39" t="n">
-        <v>2168.4</v>
+        <v>2169.616666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1851,7 +1857,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1867,7 +1873,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C40" t="n">
         <v>2155</v>
@@ -1876,13 +1882,13 @@
         <v>2155</v>
       </c>
       <c r="E40" t="n">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="G40" t="n">
-        <v>2167.55</v>
+        <v>2168.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1892,7 +1898,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1908,22 +1914,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="C41" t="n">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="D41" t="n">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="E41" t="n">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1</v>
+        <v>40</v>
       </c>
       <c r="G41" t="n">
-        <v>2166.5</v>
+        <v>2167.55</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1933,7 +1939,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1961,10 +1967,10 @@
         <v>2159</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>2165.433333333333</v>
+        <v>2166.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1974,7 +1980,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2002,10 +2008,10 @@
         <v>2159</v>
       </c>
       <c r="F43" t="n">
-        <v>189.5942</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>2164.383333333333</v>
+        <v>2165.433333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2015,7 +2021,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2043,10 +2049,10 @@
         <v>2159</v>
       </c>
       <c r="F44" t="n">
-        <v>80.09999999999999</v>
+        <v>189.5942</v>
       </c>
       <c r="G44" t="n">
-        <v>2163.45</v>
+        <v>2164.383333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2056,7 +2062,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2084,10 +2090,10 @@
         <v>2159</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2058</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>2162.683333333333</v>
+        <v>2163.45</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2097,7 +2103,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2113,22 +2119,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C46" t="n">
         <v>2159</v>
       </c>
       <c r="D46" t="n">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E46" t="n">
         <v>2159</v>
       </c>
       <c r="F46" t="n">
-        <v>516.5933</v>
+        <v>0.2058</v>
       </c>
       <c r="G46" t="n">
-        <v>2161.65</v>
+        <v>2162.683333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2138,7 +2144,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2154,22 +2160,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="C47" t="n">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="D47" t="n">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="E47" t="n">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>516.5933</v>
       </c>
       <c r="G47" t="n">
-        <v>2160.9</v>
+        <v>2161.65</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2179,7 +2185,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2207,10 +2213,10 @@
         <v>2155</v>
       </c>
       <c r="F48" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2160.133333333333</v>
+        <v>2160.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2220,7 +2226,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2236,22 +2242,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="C49" t="n">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="D49" t="n">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="E49" t="n">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="F49" t="n">
-        <v>21.6157</v>
+        <v>1.6</v>
       </c>
       <c r="G49" t="n">
-        <v>2159.216666666667</v>
+        <v>2160.133333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2261,7 +2267,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2277,7 +2283,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C50" t="n">
         <v>2160</v>
@@ -2286,13 +2292,13 @@
         <v>2160</v>
       </c>
       <c r="E50" t="n">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="F50" t="n">
-        <v>106.9197</v>
+        <v>21.6157</v>
       </c>
       <c r="G50" t="n">
-        <v>2158.55</v>
+        <v>2159.216666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2302,7 +2308,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2318,22 +2324,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="C51" t="n">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="D51" t="n">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="E51" t="n">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>106.9197</v>
       </c>
       <c r="G51" t="n">
-        <v>2157.966666666667</v>
+        <v>2158.55</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2343,7 +2349,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2371,10 +2377,10 @@
         <v>2165</v>
       </c>
       <c r="F52" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>2157.466666666667</v>
+        <v>2157.966666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2384,7 +2390,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2400,22 +2406,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="C53" t="n">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="D53" t="n">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="E53" t="n">
-        <v>2159</v>
+        <v>2165</v>
       </c>
       <c r="F53" t="n">
-        <v>459.5244</v>
+        <v>1.9</v>
       </c>
       <c r="G53" t="n">
-        <v>2157.116666666667</v>
+        <v>2157.466666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2425,7 +2431,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2441,22 +2447,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="C54" t="n">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="D54" t="n">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="E54" t="n">
-        <v>2177</v>
+        <v>2159</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1</v>
+        <v>459.5244</v>
       </c>
       <c r="G54" t="n">
-        <v>2157</v>
+        <v>2157.116666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2466,7 +2472,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2491,13 +2497,13 @@
         <v>2177</v>
       </c>
       <c r="E55" t="n">
-        <v>2165</v>
+        <v>2177</v>
       </c>
       <c r="F55" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>2157.25</v>
+        <v>2157</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2507,7 +2513,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2526,19 +2532,19 @@
         <v>2177</v>
       </c>
       <c r="C56" t="n">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D56" t="n">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E56" t="n">
-        <v>2177</v>
+        <v>2165</v>
       </c>
       <c r="F56" t="n">
-        <v>45.91969338</v>
+        <v>2.1</v>
       </c>
       <c r="G56" t="n">
-        <v>2157.4</v>
+        <v>2157.25</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2548,7 +2554,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2564,7 +2570,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2165</v>
+        <v>2177</v>
       </c>
       <c r="C57" t="n">
         <v>2178</v>
@@ -2573,13 +2579,13 @@
         <v>2178</v>
       </c>
       <c r="E57" t="n">
-        <v>2165</v>
+        <v>2177</v>
       </c>
       <c r="F57" t="n">
-        <v>3.9</v>
+        <v>45.91969338</v>
       </c>
       <c r="G57" t="n">
-        <v>2157.6</v>
+        <v>2157.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2589,7 +2595,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2605,22 +2611,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="C58" t="n">
-        <v>2167</v>
+        <v>2178</v>
       </c>
       <c r="D58" t="n">
-        <v>2167</v>
+        <v>2178</v>
       </c>
       <c r="E58" t="n">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="F58" t="n">
-        <v>16.7295</v>
+        <v>3.9</v>
       </c>
       <c r="G58" t="n">
-        <v>2157.733333333333</v>
+        <v>2157.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2630,7 +2636,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2646,22 +2652,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C59" t="n">
         <v>2167</v>
       </c>
       <c r="D59" t="n">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E59" t="n">
         <v>2167</v>
       </c>
       <c r="F59" t="n">
-        <v>937.9473</v>
+        <v>16.7295</v>
       </c>
       <c r="G59" t="n">
-        <v>2157.9</v>
+        <v>2157.733333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2671,7 +2677,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2687,22 +2693,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="C60" t="n">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="D60" t="n">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="E60" t="n">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="F60" t="n">
-        <v>2.7</v>
+        <v>937.9473</v>
       </c>
       <c r="G60" t="n">
-        <v>2158.2</v>
+        <v>2157.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2712,7 +2718,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2728,22 +2734,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="C61" t="n">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="D61" t="n">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="E61" t="n">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="F61" t="n">
-        <v>569.7777</v>
+        <v>2.7</v>
       </c>
       <c r="G61" t="n">
-        <v>2158.1</v>
+        <v>2158.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2753,7 +2759,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2772,19 +2778,19 @@
         <v>2167</v>
       </c>
       <c r="C62" t="n">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D62" t="n">
         <v>2167</v>
       </c>
       <c r="E62" t="n">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="F62" t="n">
-        <v>17.2355</v>
+        <v>569.7777</v>
       </c>
       <c r="G62" t="n">
-        <v>2158.316666666667</v>
+        <v>2158.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2794,7 +2800,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2822,10 +2828,10 @@
         <v>2167</v>
       </c>
       <c r="F63" t="n">
-        <v>121.7645</v>
+        <v>17.2355</v>
       </c>
       <c r="G63" t="n">
-        <v>2158.366666666667</v>
+        <v>2158.316666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2835,7 +2841,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2851,22 +2857,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="C64" t="n">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="D64" t="n">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="E64" t="n">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>121.7645</v>
       </c>
       <c r="G64" t="n">
-        <v>2158.4</v>
+        <v>2158.366666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2876,7 +2882,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2892,22 +2898,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2167</v>
+        <v>2174</v>
       </c>
       <c r="C65" t="n">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="D65" t="n">
-        <v>2167</v>
+        <v>2174</v>
       </c>
       <c r="E65" t="n">
-        <v>2166</v>
+        <v>2174</v>
       </c>
       <c r="F65" t="n">
-        <v>569.0723</v>
+        <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>2158.133333333333</v>
+        <v>2158.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2917,7 +2923,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2933,22 +2939,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="C66" t="n">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="D66" t="n">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="E66" t="n">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="F66" t="n">
-        <v>15.9895</v>
+        <v>569.0723</v>
       </c>
       <c r="G66" t="n">
-        <v>2157.766666666667</v>
+        <v>2158.133333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2958,7 +2964,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2986,10 +2992,10 @@
         <v>2165</v>
       </c>
       <c r="F67" t="n">
-        <v>472.63</v>
+        <v>15.9895</v>
       </c>
       <c r="G67" t="n">
-        <v>2157.733333333333</v>
+        <v>2157.766666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2999,7 +3005,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3027,10 +3033,10 @@
         <v>2165</v>
       </c>
       <c r="F68" t="n">
-        <v>11.3805</v>
+        <v>472.63</v>
       </c>
       <c r="G68" t="n">
-        <v>2157.416666666667</v>
+        <v>2157.733333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3040,7 +3046,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3056,22 +3062,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2160</v>
+        <v>2165</v>
       </c>
       <c r="C69" t="n">
-        <v>2160</v>
+        <v>2165</v>
       </c>
       <c r="D69" t="n">
-        <v>2160</v>
+        <v>2165</v>
       </c>
       <c r="E69" t="n">
-        <v>2160</v>
+        <v>2165</v>
       </c>
       <c r="F69" t="n">
-        <v>234.07</v>
+        <v>11.3805</v>
       </c>
       <c r="G69" t="n">
-        <v>2157.016666666667</v>
+        <v>2157.416666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3109,10 +3115,10 @@
         <v>2160</v>
       </c>
       <c r="F70" t="n">
-        <v>245.3215</v>
+        <v>234.07</v>
       </c>
       <c r="G70" t="n">
-        <v>2156.883333333333</v>
+        <v>2157.016666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3122,7 +3128,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3150,7 +3156,7 @@
         <v>2160</v>
       </c>
       <c r="F71" t="n">
-        <v>20.6085</v>
+        <v>245.3215</v>
       </c>
       <c r="G71" t="n">
         <v>2156.883333333333</v>
@@ -3163,7 +3169,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3179,22 +3185,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="C72" t="n">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="D72" t="n">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="E72" t="n">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="F72" t="n">
-        <v>113.0667</v>
+        <v>20.6085</v>
       </c>
       <c r="G72" t="n">
-        <v>2156.8</v>
+        <v>2156.883333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3204,7 +3210,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3220,22 +3226,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="C73" t="n">
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="D73" t="n">
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="E73" t="n">
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1</v>
+        <v>113.0667</v>
       </c>
       <c r="G73" t="n">
-        <v>2156.966666666667</v>
+        <v>2156.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3245,7 +3251,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3261,22 +3267,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="C74" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="D74" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="E74" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="F74" t="n">
-        <v>12.0444</v>
+        <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>2156.933333333333</v>
+        <v>2156.966666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3286,7 +3292,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3314,10 +3320,10 @@
         <v>2155</v>
       </c>
       <c r="F75" t="n">
-        <v>145.5709</v>
+        <v>12.0444</v>
       </c>
       <c r="G75" t="n">
-        <v>2157.033333333333</v>
+        <v>2156.933333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3327,7 +3333,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3355,10 +3361,10 @@
         <v>2155</v>
       </c>
       <c r="F76" t="n">
-        <v>143.3868</v>
+        <v>145.5709</v>
       </c>
       <c r="G76" t="n">
-        <v>2157.2</v>
+        <v>2157.033333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3368,7 +3374,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3396,10 +3402,10 @@
         <v>2155</v>
       </c>
       <c r="F77" t="n">
-        <v>85.9312</v>
+        <v>143.3868</v>
       </c>
       <c r="G77" t="n">
-        <v>2157.366666666667</v>
+        <v>2157.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3409,7 +3415,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3425,22 +3431,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="C78" t="n">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="D78" t="n">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="E78" t="n">
-        <v>2147</v>
+        <v>2155</v>
       </c>
       <c r="F78" t="n">
-        <v>5591.4807</v>
+        <v>85.9312</v>
       </c>
       <c r="G78" t="n">
-        <v>2157.216666666667</v>
+        <v>2157.366666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3450,7 +3456,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3475,13 +3481,13 @@
         <v>2152</v>
       </c>
       <c r="E79" t="n">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="F79" t="n">
-        <v>143.34</v>
+        <v>5591.4807</v>
       </c>
       <c r="G79" t="n">
-        <v>2157.416666666667</v>
+        <v>2157.216666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3491,7 +3497,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3507,22 +3513,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2169</v>
+        <v>2152</v>
       </c>
       <c r="C80" t="n">
-        <v>2169</v>
+        <v>2152</v>
       </c>
       <c r="D80" t="n">
-        <v>2169</v>
+        <v>2152</v>
       </c>
       <c r="E80" t="n">
-        <v>2169</v>
+        <v>2152</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1</v>
+        <v>143.34</v>
       </c>
       <c r="G80" t="n">
-        <v>2158.016666666667</v>
+        <v>2157.416666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3532,7 +3538,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3548,22 +3554,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2155</v>
+        <v>2169</v>
       </c>
       <c r="C81" t="n">
-        <v>2155</v>
+        <v>2169</v>
       </c>
       <c r="D81" t="n">
-        <v>2155</v>
+        <v>2169</v>
       </c>
       <c r="E81" t="n">
-        <v>2155</v>
+        <v>2169</v>
       </c>
       <c r="F81" t="n">
-        <v>110.463</v>
+        <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>2158.383333333333</v>
+        <v>2158.016666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3573,7 +3579,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3589,22 +3595,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="C82" t="n">
-        <v>2150</v>
+        <v>2155</v>
       </c>
       <c r="D82" t="n">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="E82" t="n">
-        <v>2150</v>
+        <v>2155</v>
       </c>
       <c r="F82" t="n">
-        <v>1474</v>
+        <v>110.463</v>
       </c>
       <c r="G82" t="n">
-        <v>2158.65</v>
+        <v>2158.383333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3614,7 +3620,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3630,22 +3636,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2169</v>
+        <v>2151</v>
       </c>
       <c r="C83" t="n">
-        <v>2169</v>
+        <v>2150</v>
       </c>
       <c r="D83" t="n">
-        <v>2169</v>
+        <v>2151</v>
       </c>
       <c r="E83" t="n">
-        <v>2169</v>
+        <v>2150</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1</v>
+        <v>1474</v>
       </c>
       <c r="G83" t="n">
-        <v>2159.5</v>
+        <v>2158.65</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3655,7 +3661,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3671,22 +3677,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2157</v>
+        <v>2169</v>
       </c>
       <c r="C84" t="n">
-        <v>2157</v>
+        <v>2169</v>
       </c>
       <c r="D84" t="n">
-        <v>2157</v>
+        <v>2169</v>
       </c>
       <c r="E84" t="n">
-        <v>2157</v>
+        <v>2169</v>
       </c>
       <c r="F84" t="n">
-        <v>20.7008</v>
+        <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>2159.883333333333</v>
+        <v>2159.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3696,7 +3702,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3712,22 +3718,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2166</v>
+        <v>2157</v>
       </c>
       <c r="C85" t="n">
-        <v>2166</v>
+        <v>2157</v>
       </c>
       <c r="D85" t="n">
-        <v>2166</v>
+        <v>2157</v>
       </c>
       <c r="E85" t="n">
-        <v>2166</v>
+        <v>2157</v>
       </c>
       <c r="F85" t="n">
-        <v>27.5631</v>
+        <v>20.7008</v>
       </c>
       <c r="G85" t="n">
-        <v>2160.7</v>
+        <v>2159.883333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3737,7 +3743,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3753,22 +3759,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2147</v>
+        <v>2166</v>
       </c>
       <c r="C86" t="n">
-        <v>2147</v>
+        <v>2166</v>
       </c>
       <c r="D86" t="n">
-        <v>2147</v>
+        <v>2166</v>
       </c>
       <c r="E86" t="n">
-        <v>2147</v>
+        <v>2166</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1</v>
+        <v>27.5631</v>
       </c>
       <c r="G86" t="n">
-        <v>2160.9</v>
+        <v>2160.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3778,7 +3784,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3794,22 +3800,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2170</v>
+        <v>2147</v>
       </c>
       <c r="C87" t="n">
-        <v>2170</v>
+        <v>2147</v>
       </c>
       <c r="D87" t="n">
-        <v>2170</v>
+        <v>2147</v>
       </c>
       <c r="E87" t="n">
-        <v>2170</v>
+        <v>2147</v>
       </c>
       <c r="F87" t="n">
-        <v>15.913</v>
+        <v>0.1</v>
       </c>
       <c r="G87" t="n">
-        <v>2161.466666666667</v>
+        <v>2160.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3819,7 +3825,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3847,10 +3853,10 @@
         <v>2170</v>
       </c>
       <c r="F88" t="n">
-        <v>105.0266</v>
+        <v>15.913</v>
       </c>
       <c r="G88" t="n">
-        <v>2162.016666666667</v>
+        <v>2161.466666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3860,7 +3866,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3876,22 +3882,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="C89" t="n">
-        <v>2195</v>
+        <v>2170</v>
       </c>
       <c r="D89" t="n">
-        <v>2195</v>
+        <v>2170</v>
       </c>
       <c r="E89" t="n">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="F89" t="n">
-        <v>92.51600000000001</v>
+        <v>105.0266</v>
       </c>
       <c r="G89" t="n">
-        <v>2162.933333333333</v>
+        <v>2162.016666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3901,7 +3907,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3917,22 +3923,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="C90" t="n">
-        <v>2183</v>
+        <v>2195</v>
       </c>
       <c r="D90" t="n">
-        <v>2183</v>
+        <v>2195</v>
       </c>
       <c r="E90" t="n">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="F90" t="n">
-        <v>84.03449999999999</v>
+        <v>92.51600000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>2163.566666666667</v>
+        <v>2162.933333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3942,7 +3948,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3958,22 +3964,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="C91" t="n">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="D91" t="n">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="E91" t="n">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="F91" t="n">
-        <v>167.7304</v>
+        <v>84.03449999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>2163.75</v>
+        <v>2163.566666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3983,7 +3989,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4002,19 +4008,19 @@
         <v>2175</v>
       </c>
       <c r="C92" t="n">
-        <v>2185</v>
+        <v>2175</v>
       </c>
       <c r="D92" t="n">
-        <v>2192</v>
+        <v>2175</v>
       </c>
       <c r="E92" t="n">
         <v>2175</v>
       </c>
       <c r="F92" t="n">
-        <v>560.9643</v>
+        <v>167.7304</v>
       </c>
       <c r="G92" t="n">
-        <v>2163.95</v>
+        <v>2163.75</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4024,7 +4030,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4040,22 +4046,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="C93" t="n">
-        <v>2179</v>
+        <v>2185</v>
       </c>
       <c r="D93" t="n">
-        <v>2180</v>
+        <v>2192</v>
       </c>
       <c r="E93" t="n">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="F93" t="n">
-        <v>60.97</v>
+        <v>560.9643</v>
       </c>
       <c r="G93" t="n">
-        <v>2164.316666666667</v>
+        <v>2163.95</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4065,7 +4071,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4081,22 +4087,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2191</v>
+        <v>2180</v>
       </c>
       <c r="C94" t="n">
-        <v>2191</v>
+        <v>2179</v>
       </c>
       <c r="D94" t="n">
-        <v>2191</v>
+        <v>2180</v>
       </c>
       <c r="E94" t="n">
-        <v>2191</v>
+        <v>2179</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1</v>
+        <v>60.97</v>
       </c>
       <c r="G94" t="n">
-        <v>2164.683333333333</v>
+        <v>2164.316666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4106,7 +4112,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4122,22 +4128,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="C95" t="n">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="D95" t="n">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="E95" t="n">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="F95" t="n">
-        <v>288.54611872</v>
+        <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>2165.066666666667</v>
+        <v>2164.683333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4147,7 +4153,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4163,22 +4169,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C96" t="n">
-        <v>2198</v>
+        <v>2190</v>
       </c>
       <c r="D96" t="n">
-        <v>2198</v>
+        <v>2190</v>
       </c>
       <c r="E96" t="n">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F96" t="n">
-        <v>45.51976032</v>
+        <v>288.54611872</v>
       </c>
       <c r="G96" t="n">
-        <v>2165.683333333333</v>
+        <v>2165.066666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4188,7 +4194,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4204,7 +4210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2198</v>
+        <v>2191</v>
       </c>
       <c r="C97" t="n">
         <v>2198</v>
@@ -4213,13 +4219,13 @@
         <v>2198</v>
       </c>
       <c r="E97" t="n">
-        <v>2198</v>
+        <v>2191</v>
       </c>
       <c r="F97" t="n">
-        <v>51.297</v>
+        <v>45.51976032</v>
       </c>
       <c r="G97" t="n">
-        <v>2166.283333333333</v>
+        <v>2165.683333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4229,7 +4235,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4245,22 +4251,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C98" t="n">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D98" t="n">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="E98" t="n">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F98" t="n">
-        <v>285.3776</v>
+        <v>51.297</v>
       </c>
       <c r="G98" t="n">
-        <v>2167.05</v>
+        <v>2166.283333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4270,7 +4276,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4286,7 +4292,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C99" t="n">
         <v>2200</v>
@@ -4295,13 +4301,13 @@
         <v>2200</v>
       </c>
       <c r="E99" t="n">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F99" t="n">
-        <v>16.651</v>
+        <v>285.3776</v>
       </c>
       <c r="G99" t="n">
-        <v>2167.8</v>
+        <v>2167.05</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4311,7 +4317,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4339,10 +4345,10 @@
         <v>2200</v>
       </c>
       <c r="F100" t="n">
-        <v>3.34</v>
+        <v>16.651</v>
       </c>
       <c r="G100" t="n">
-        <v>2168.55</v>
+        <v>2167.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4352,7 +4358,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4380,10 +4386,10 @@
         <v>2200</v>
       </c>
       <c r="F101" t="n">
-        <v>0.008999999999999999</v>
+        <v>3.34</v>
       </c>
       <c r="G101" t="n">
-        <v>2169.233333333333</v>
+        <v>2168.55</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4393,7 +4399,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4409,22 +4415,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2216</v>
+        <v>2200</v>
       </c>
       <c r="C102" t="n">
-        <v>2220</v>
+        <v>2200</v>
       </c>
       <c r="D102" t="n">
-        <v>2220</v>
+        <v>2200</v>
       </c>
       <c r="E102" t="n">
-        <v>2216</v>
+        <v>2200</v>
       </c>
       <c r="F102" t="n">
-        <v>1289.7416</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>2170.25</v>
+        <v>2169.233333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4434,7 +4440,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4450,22 +4456,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="C103" t="n">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D103" t="n">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E103" t="n">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="F103" t="n">
-        <v>82.12869999999999</v>
+        <v>1289.7416</v>
       </c>
       <c r="G103" t="n">
-        <v>2171.283333333333</v>
+        <v>2170.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4475,7 +4481,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4503,28 +4509,28 @@
         <v>2221</v>
       </c>
       <c r="F104" t="n">
-        <v>924.6019</v>
+        <v>82.12869999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>2172.316666666667</v>
+        <v>2171.283333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1.035768509840675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4532,22 +4538,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="C105" t="n">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="D105" t="n">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="E105" t="n">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F105" t="n">
-        <v>307.3211</v>
+        <v>924.6019</v>
       </c>
       <c r="G105" t="n">
-        <v>2173.333333333333</v>
+        <v>2172.316666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4556,10 +4562,16 @@
         <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2133</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>1.036256446319737</v>
       </c>
     </row>
     <row r="106">
@@ -4567,22 +4579,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="C106" t="n">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="D106" t="n">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="E106" t="n">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="F106" t="n">
-        <v>14.9</v>
+        <v>307.3211</v>
       </c>
       <c r="G106" t="n">
-        <v>2174.3</v>
+        <v>2173.333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4602,28 +4614,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C107" t="n">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="D107" t="n">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E107" t="n">
         <v>2217</v>
       </c>
       <c r="F107" t="n">
-        <v>424.5336</v>
+        <v>14.9</v>
       </c>
       <c r="G107" t="n">
-        <v>2175.366666666667</v>
+        <v>2174.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4637,28 +4649,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2211</v>
+        <v>2219</v>
       </c>
       <c r="C108" t="n">
-        <v>2211</v>
+        <v>2219</v>
       </c>
       <c r="D108" t="n">
-        <v>2211</v>
+        <v>2219</v>
       </c>
       <c r="E108" t="n">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="F108" t="n">
-        <v>16.9121</v>
+        <v>424.5336</v>
       </c>
       <c r="G108" t="n">
-        <v>2176.3</v>
+        <v>2175.366666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4672,28 +4684,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="C109" t="n">
         <v>2211</v>
       </c>
       <c r="D109" t="n">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="E109" t="n">
         <v>2211</v>
       </c>
       <c r="F109" t="n">
-        <v>406.2262</v>
+        <v>16.9121</v>
       </c>
       <c r="G109" t="n">
-        <v>2177.15</v>
+        <v>2176.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4707,22 +4719,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="C110" t="n">
         <v>2211</v>
       </c>
       <c r="D110" t="n">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="E110" t="n">
         <v>2211</v>
       </c>
       <c r="F110" t="n">
-        <v>34.4869</v>
+        <v>406.2262</v>
       </c>
       <c r="G110" t="n">
-        <v>2178</v>
+        <v>2177.15</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4742,22 +4754,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="C111" t="n">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="D111" t="n">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="E111" t="n">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="F111" t="n">
-        <v>31.8444</v>
+        <v>34.4869</v>
       </c>
       <c r="G111" t="n">
-        <v>2178.733333333333</v>
+        <v>2178</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4777,22 +4789,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2200</v>
+        <v>2208</v>
       </c>
       <c r="C112" t="n">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="D112" t="n">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="E112" t="n">
-        <v>2200</v>
+        <v>2208</v>
       </c>
       <c r="F112" t="n">
-        <v>145.1502</v>
+        <v>31.8444</v>
       </c>
       <c r="G112" t="n">
-        <v>2179.416666666667</v>
+        <v>2178.733333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4812,22 +4824,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="C113" t="n">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="D113" t="n">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="E113" t="n">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="F113" t="n">
-        <v>24.8095</v>
+        <v>145.1502</v>
       </c>
       <c r="G113" t="n">
-        <v>2179.933333333333</v>
+        <v>2179.416666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4847,22 +4859,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="C114" t="n">
-        <v>2190</v>
+        <v>2205</v>
       </c>
       <c r="D114" t="n">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="E114" t="n">
-        <v>2190</v>
+        <v>2205</v>
       </c>
       <c r="F114" t="n">
-        <v>360.7981</v>
+        <v>24.8095</v>
       </c>
       <c r="G114" t="n">
-        <v>2180.15</v>
+        <v>2179.933333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4882,22 +4894,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="C115" t="n">
-        <v>2204</v>
+        <v>2190</v>
       </c>
       <c r="D115" t="n">
-        <v>2204</v>
+        <v>2195</v>
       </c>
       <c r="E115" t="n">
-        <v>2203</v>
+        <v>2190</v>
       </c>
       <c r="F115" t="n">
-        <v>99.96241714999999</v>
+        <v>360.7981</v>
       </c>
       <c r="G115" t="n">
-        <v>2180.6</v>
+        <v>2180.15</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4917,22 +4929,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2191</v>
+        <v>2203</v>
       </c>
       <c r="C116" t="n">
-        <v>2191</v>
+        <v>2204</v>
       </c>
       <c r="D116" t="n">
-        <v>2199</v>
+        <v>2204</v>
       </c>
       <c r="E116" t="n">
-        <v>2191</v>
+        <v>2203</v>
       </c>
       <c r="F116" t="n">
-        <v>163.1118</v>
+        <v>99.96241714999999</v>
       </c>
       <c r="G116" t="n">
-        <v>2180.816666666667</v>
+        <v>2180.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4955,19 +4967,19 @@
         <v>2191</v>
       </c>
       <c r="C117" t="n">
-        <v>2200</v>
+        <v>2191</v>
       </c>
       <c r="D117" t="n">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E117" t="n">
         <v>2191</v>
       </c>
       <c r="F117" t="n">
-        <v>102.8796</v>
+        <v>163.1118</v>
       </c>
       <c r="G117" t="n">
-        <v>2181.183333333333</v>
+        <v>2180.816666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4990,19 +5002,19 @@
         <v>2191</v>
       </c>
       <c r="C118" t="n">
-        <v>2190</v>
+        <v>2200</v>
       </c>
       <c r="D118" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E118" t="n">
         <v>2191</v>
       </c>
-      <c r="E118" t="n">
-        <v>2190</v>
-      </c>
       <c r="F118" t="n">
-        <v>377.0838</v>
+        <v>102.8796</v>
       </c>
       <c r="G118" t="n">
-        <v>2181.566666666667</v>
+        <v>2181.183333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5022,22 +5034,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="C119" t="n">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="D119" t="n">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="E119" t="n">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="F119" t="n">
-        <v>980.3864</v>
+        <v>377.0838</v>
       </c>
       <c r="G119" t="n">
-        <v>2182.016666666667</v>
+        <v>2181.566666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5057,22 +5069,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="C120" t="n">
         <v>2194</v>
       </c>
       <c r="D120" t="n">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="E120" t="n">
         <v>2194</v>
       </c>
       <c r="F120" t="n">
-        <v>6.8192</v>
+        <v>980.3864</v>
       </c>
       <c r="G120" t="n">
-        <v>2182.416666666667</v>
+        <v>2182.016666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5104,10 +5116,10 @@
         <v>2194</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>6.8192</v>
       </c>
       <c r="G121" t="n">
-        <v>2182.883333333333</v>
+        <v>2182.416666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5127,22 +5139,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C122" t="n">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D122" t="n">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E122" t="n">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F122" t="n">
-        <v>1588.0783599</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>2183.35</v>
+        <v>2182.883333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5162,22 +5174,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2180</v>
+        <v>2195</v>
       </c>
       <c r="C123" t="n">
-        <v>2180</v>
+        <v>2195</v>
       </c>
       <c r="D123" t="n">
-        <v>2180</v>
+        <v>2195</v>
       </c>
       <c r="E123" t="n">
-        <v>2180</v>
+        <v>2195</v>
       </c>
       <c r="F123" t="n">
-        <v>17.0872</v>
+        <v>1588.0783599</v>
       </c>
       <c r="G123" t="n">
-        <v>2183.566666666667</v>
+        <v>2183.35</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5197,22 +5209,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="C124" t="n">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="D124" t="n">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="E124" t="n">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="F124" t="n">
-        <v>34.2047</v>
+        <v>17.0872</v>
       </c>
       <c r="G124" t="n">
-        <v>2183.816666666667</v>
+        <v>2183.566666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5232,22 +5244,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2180</v>
+        <v>2189</v>
       </c>
       <c r="C125" t="n">
-        <v>2180</v>
+        <v>2189</v>
       </c>
       <c r="D125" t="n">
-        <v>2180</v>
+        <v>2189</v>
       </c>
       <c r="E125" t="n">
-        <v>2180</v>
+        <v>2189</v>
       </c>
       <c r="F125" t="n">
-        <v>146.8257</v>
+        <v>34.2047</v>
       </c>
       <c r="G125" t="n">
-        <v>2184.05</v>
+        <v>2183.816666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5270,19 +5282,19 @@
         <v>2180</v>
       </c>
       <c r="C126" t="n">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="D126" t="n">
         <v>2180</v>
       </c>
       <c r="E126" t="n">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="F126" t="n">
-        <v>1339.9034</v>
+        <v>146.8257</v>
       </c>
       <c r="G126" t="n">
-        <v>2184.283333333333</v>
+        <v>2184.05</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5302,22 +5314,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="C127" t="n">
+        <v>2179</v>
+      </c>
+      <c r="D127" t="n">
         <v>2180</v>
       </c>
-      <c r="D127" t="n">
-        <v>2189</v>
-      </c>
       <c r="E127" t="n">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F127" t="n">
-        <v>82560.10000000001</v>
+        <v>1339.9034</v>
       </c>
       <c r="G127" t="n">
-        <v>2184.533333333333</v>
+        <v>2184.283333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5337,22 +5349,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2180</v>
+        <v>2189</v>
       </c>
       <c r="C128" t="n">
         <v>2180</v>
       </c>
       <c r="D128" t="n">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="E128" t="n">
         <v>2180</v>
       </c>
       <c r="F128" t="n">
-        <v>120480.2</v>
+        <v>82560.10000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>2184.783333333333</v>
+        <v>2184.533333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5372,10 +5384,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2193</v>
+        <v>2180</v>
       </c>
       <c r="C129" t="n">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D129" t="n">
         <v>2193</v>
@@ -5384,10 +5396,10 @@
         <v>2180</v>
       </c>
       <c r="F129" t="n">
-        <v>995.9301</v>
+        <v>120480.2</v>
       </c>
       <c r="G129" t="n">
-        <v>2185.133333333333</v>
+        <v>2184.783333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5407,22 +5419,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2179</v>
+        <v>2193</v>
       </c>
       <c r="C130" t="n">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="D130" t="n">
-        <v>2179</v>
+        <v>2193</v>
       </c>
       <c r="E130" t="n">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="F130" t="n">
-        <v>17.8211</v>
+        <v>995.9301</v>
       </c>
       <c r="G130" t="n">
-        <v>2185.45</v>
+        <v>2185.133333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5442,22 +5454,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="C131" t="n">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="D131" t="n">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="E131" t="n">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="F131" t="n">
-        <v>20.5432</v>
+        <v>17.8211</v>
       </c>
       <c r="G131" t="n">
-        <v>2185.866666666667</v>
+        <v>2185.45</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5477,22 +5489,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="C132" t="n">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="D132" t="n">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="E132" t="n">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2</v>
+        <v>20.5432</v>
       </c>
       <c r="G132" t="n">
-        <v>2186.4</v>
+        <v>2185.866666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5512,22 +5524,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2181</v>
+        <v>2187</v>
       </c>
       <c r="C133" t="n">
-        <v>2178</v>
+        <v>2187</v>
       </c>
       <c r="D133" t="n">
-        <v>2181</v>
+        <v>2187</v>
       </c>
       <c r="E133" t="n">
-        <v>2178</v>
+        <v>2187</v>
       </c>
       <c r="F133" t="n">
-        <v>314.1618</v>
+        <v>0.2</v>
       </c>
       <c r="G133" t="n">
-        <v>2186.533333333333</v>
+        <v>2186.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5547,22 +5559,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2170</v>
+        <v>2181</v>
       </c>
       <c r="C134" t="n">
-        <v>2170</v>
+        <v>2178</v>
       </c>
       <c r="D134" t="n">
-        <v>2170</v>
+        <v>2181</v>
       </c>
       <c r="E134" t="n">
-        <v>2170</v>
+        <v>2178</v>
       </c>
       <c r="F134" t="n">
-        <v>33.7517</v>
+        <v>314.1618</v>
       </c>
       <c r="G134" t="n">
-        <v>2186.783333333333</v>
+        <v>2186.533333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5582,22 +5594,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C135" t="n">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D135" t="n">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E135" t="n">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="F135" t="n">
-        <v>59.9535</v>
+        <v>33.7517</v>
       </c>
       <c r="G135" t="n">
-        <v>2187.05</v>
+        <v>2186.783333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5629,10 +5641,10 @@
         <v>2171</v>
       </c>
       <c r="F136" t="n">
-        <v>16.9398</v>
+        <v>59.9535</v>
       </c>
       <c r="G136" t="n">
-        <v>2187.316666666667</v>
+        <v>2187.05</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5664,10 +5676,10 @@
         <v>2171</v>
       </c>
       <c r="F137" t="n">
-        <v>39.58</v>
+        <v>16.9398</v>
       </c>
       <c r="G137" t="n">
-        <v>2187.583333333333</v>
+        <v>2187.316666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5690,19 +5702,19 @@
         <v>2171</v>
       </c>
       <c r="C138" t="n">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="D138" t="n">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="E138" t="n">
         <v>2171</v>
       </c>
       <c r="F138" t="n">
-        <v>788.32772277</v>
+        <v>39.58</v>
       </c>
       <c r="G138" t="n">
-        <v>2188.016666666667</v>
+        <v>2187.583333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5722,22 +5734,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="C139" t="n">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="D139" t="n">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="E139" t="n">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="F139" t="n">
-        <v>54.4091</v>
+        <v>788.32772277</v>
       </c>
       <c r="G139" t="n">
-        <v>2188.433333333333</v>
+        <v>2188.016666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5757,22 +5769,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C140" t="n">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D140" t="n">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E140" t="n">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F140" t="n">
-        <v>56.6</v>
+        <v>54.4091</v>
       </c>
       <c r="G140" t="n">
-        <v>2188.583333333333</v>
+        <v>2188.433333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5804,10 +5816,10 @@
         <v>2178</v>
       </c>
       <c r="F141" t="n">
-        <v>55.81</v>
+        <v>56.6</v>
       </c>
       <c r="G141" t="n">
-        <v>2188.966666666667</v>
+        <v>2188.583333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5827,22 +5839,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="C142" t="n">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="D142" t="n">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="E142" t="n">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="F142" t="n">
-        <v>99.7526</v>
+        <v>55.81</v>
       </c>
       <c r="G142" t="n">
-        <v>2189.383333333333</v>
+        <v>2188.966666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5862,22 +5874,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2170</v>
+        <v>2175</v>
       </c>
       <c r="C143" t="n">
-        <v>2170</v>
+        <v>2175</v>
       </c>
       <c r="D143" t="n">
-        <v>2170</v>
+        <v>2175</v>
       </c>
       <c r="E143" t="n">
-        <v>2170</v>
+        <v>2175</v>
       </c>
       <c r="F143" t="n">
-        <v>58.392</v>
+        <v>99.7526</v>
       </c>
       <c r="G143" t="n">
-        <v>2189.4</v>
+        <v>2189.383333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5897,22 +5909,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2161</v>
+        <v>2170</v>
       </c>
       <c r="C144" t="n">
-        <v>2161</v>
+        <v>2170</v>
       </c>
       <c r="D144" t="n">
-        <v>2161</v>
+        <v>2170</v>
       </c>
       <c r="E144" t="n">
-        <v>2161</v>
+        <v>2170</v>
       </c>
       <c r="F144" t="n">
-        <v>17</v>
+        <v>58.392</v>
       </c>
       <c r="G144" t="n">
-        <v>2189.466666666667</v>
+        <v>2189.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5932,22 +5944,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="C145" t="n">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="D145" t="n">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="E145" t="n">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="F145" t="n">
-        <v>701.852</v>
+        <v>17</v>
       </c>
       <c r="G145" t="n">
-        <v>2189.3</v>
+        <v>2189.466666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5979,10 +5991,10 @@
         <v>2156</v>
       </c>
       <c r="F146" t="n">
-        <v>67.129</v>
+        <v>701.852</v>
       </c>
       <c r="G146" t="n">
-        <v>2189.45</v>
+        <v>2189.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6005,19 +6017,19 @@
         <v>2156</v>
       </c>
       <c r="C147" t="n">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="D147" t="n">
         <v>2156</v>
       </c>
       <c r="E147" t="n">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="F147" t="n">
-        <v>1097.8247</v>
+        <v>67.129</v>
       </c>
       <c r="G147" t="n">
-        <v>2189.05</v>
+        <v>2189.45</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6037,22 +6049,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="C148" t="n">
         <v>2146</v>
       </c>
       <c r="D148" t="n">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="E148" t="n">
         <v>2146</v>
       </c>
       <c r="F148" t="n">
-        <v>400.8874</v>
+        <v>1097.8247</v>
       </c>
       <c r="G148" t="n">
-        <v>2188.65</v>
+        <v>2189.05</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6072,22 +6084,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="C149" t="n">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="D149" t="n">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="E149" t="n">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="F149" t="n">
-        <v>116.8403</v>
+        <v>400.8874</v>
       </c>
       <c r="G149" t="n">
-        <v>2188</v>
+        <v>2188.65</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6107,22 +6119,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C150" t="n">
-        <v>2145</v>
+        <v>2156</v>
       </c>
       <c r="D150" t="n">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="E150" t="n">
         <v>2145</v>
       </c>
       <c r="F150" t="n">
-        <v>928.1244</v>
+        <v>116.8403</v>
       </c>
       <c r="G150" t="n">
-        <v>2187.366666666667</v>
+        <v>2188</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6142,22 +6154,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="C151" t="n">
         <v>2145</v>
       </c>
       <c r="D151" t="n">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E151" t="n">
         <v>2145</v>
       </c>
       <c r="F151" t="n">
-        <v>172.4942</v>
+        <v>928.1244</v>
       </c>
       <c r="G151" t="n">
-        <v>2186.866666666667</v>
+        <v>2187.366666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6177,22 +6189,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="C152" t="n">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="D152" t="n">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="E152" t="n">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="F152" t="n">
-        <v>0.23</v>
+        <v>172.4942</v>
       </c>
       <c r="G152" t="n">
-        <v>2186.266666666667</v>
+        <v>2186.866666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6224,19 +6236,23 @@
         <v>2149</v>
       </c>
       <c r="F153" t="n">
-        <v>82.06010000000001</v>
+        <v>0.23</v>
       </c>
       <c r="G153" t="n">
-        <v>2185.766666666667</v>
+        <v>2186.266666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2145</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2145</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
@@ -6247,32 +6263,40 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C154" t="n">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="D154" t="n">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="E154" t="n">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5</v>
+        <v>82.06010000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>2185.166666666667</v>
+        <v>2185.766666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2149</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2145</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6282,32 +6306,40 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C155" t="n">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D155" t="n">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="E155" t="n">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="n">
-        <v>2184.616666666667</v>
+        <v>2185.166666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2149</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2145</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6317,22 +6349,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="C156" t="n">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="D156" t="n">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="E156" t="n">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="F156" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G156" t="n">
-        <v>2184</v>
+        <v>2184.616666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6352,35 +6384,31 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="C157" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="D157" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="E157" t="n">
-        <v>2145</v>
+        <v>2161</v>
       </c>
       <c r="F157" t="n">
-        <v>17.8021</v>
+        <v>0.2</v>
       </c>
       <c r="G157" t="n">
-        <v>2183.116666666667</v>
+        <v>2184</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>2161</v>
-      </c>
-      <c r="K157" t="n">
-        <v>2161</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
@@ -6391,22 +6419,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="C158" t="n">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="D158" t="n">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="E158" t="n">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1</v>
+        <v>17.8021</v>
       </c>
       <c r="G158" t="n">
-        <v>2182.3</v>
+        <v>2183.116666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6415,14 +6443,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6432,40 +6454,32 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="C159" t="n">
-        <v>2168</v>
+        <v>2151</v>
       </c>
       <c r="D159" t="n">
-        <v>2168</v>
+        <v>2151</v>
       </c>
       <c r="E159" t="n">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G159" t="n">
-        <v>2181.766666666667</v>
+        <v>2182.3</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>2151</v>
-      </c>
-      <c r="K159" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6475,22 +6489,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2170</v>
+        <v>2157</v>
       </c>
       <c r="C160" t="n">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D160" t="n">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="E160" t="n">
-        <v>2170</v>
+        <v>2157</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G160" t="n">
-        <v>2181.266666666667</v>
+        <v>2181.766666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6499,14 +6513,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6516,22 +6524,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="C161" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="D161" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="E161" t="n">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="F161" t="n">
-        <v>101</v>
+        <v>0.1</v>
       </c>
       <c r="G161" t="n">
-        <v>2180.733333333333</v>
+        <v>2181.266666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6540,14 +6548,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6557,22 +6559,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="C162" t="n">
+        <v>2168</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E162" t="n">
         <v>2167</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2167</v>
-      </c>
-      <c r="E162" t="n">
-        <v>2165</v>
       </c>
       <c r="F162" t="n">
         <v>101</v>
       </c>
       <c r="G162" t="n">
-        <v>2179.85</v>
+        <v>2180.733333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6581,14 +6583,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6598,22 +6594,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2175</v>
+        <v>2165</v>
       </c>
       <c r="C163" t="n">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="D163" t="n">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="E163" t="n">
-        <v>2175</v>
+        <v>2165</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1</v>
+        <v>101</v>
       </c>
       <c r="G163" t="n">
-        <v>2179.083333333333</v>
+        <v>2179.85</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6622,14 +6618,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6639,22 +6629,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2166</v>
+        <v>2175</v>
       </c>
       <c r="C164" t="n">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="D164" t="n">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="E164" t="n">
-        <v>2166</v>
+        <v>2175</v>
       </c>
       <c r="F164" t="n">
-        <v>157.1129</v>
+        <v>0.1</v>
       </c>
       <c r="G164" t="n">
-        <v>2178.283333333333</v>
+        <v>2179.083333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6663,14 +6653,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6680,22 +6664,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2158</v>
+        <v>2166</v>
       </c>
       <c r="C165" t="n">
-        <v>2158</v>
+        <v>2173</v>
       </c>
       <c r="D165" t="n">
-        <v>2158</v>
+        <v>2173</v>
       </c>
       <c r="E165" t="n">
-        <v>2158</v>
+        <v>2166</v>
       </c>
       <c r="F165" t="n">
-        <v>17.9331</v>
+        <v>157.1129</v>
       </c>
       <c r="G165" t="n">
-        <v>2177.25</v>
+        <v>2178.283333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6704,14 +6688,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6721,22 +6699,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="C166" t="n">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="D166" t="n">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="E166" t="n">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="F166" t="n">
-        <v>0.11</v>
+        <v>17.9331</v>
       </c>
       <c r="G166" t="n">
-        <v>2176.433333333333</v>
+        <v>2177.25</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6745,14 +6723,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6765,19 +6737,19 @@
         <v>2168</v>
       </c>
       <c r="C167" t="n">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="D167" t="n">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="E167" t="n">
         <v>2168</v>
       </c>
       <c r="F167" t="n">
-        <v>36.17831141</v>
+        <v>0.11</v>
       </c>
       <c r="G167" t="n">
-        <v>2175.65</v>
+        <v>2176.433333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6786,14 +6758,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6803,22 +6769,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2177</v>
+        <v>2168</v>
       </c>
       <c r="C168" t="n">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="D168" t="n">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="E168" t="n">
-        <v>2177</v>
+        <v>2168</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2</v>
+        <v>36.17831141</v>
       </c>
       <c r="G168" t="n">
-        <v>2175.083333333333</v>
+        <v>2175.65</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6827,14 +6793,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6844,22 +6804,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2162</v>
+        <v>2177</v>
       </c>
       <c r="C169" t="n">
-        <v>2162</v>
+        <v>2177</v>
       </c>
       <c r="D169" t="n">
-        <v>2162</v>
+        <v>2177</v>
       </c>
       <c r="E169" t="n">
-        <v>2162</v>
+        <v>2177</v>
       </c>
       <c r="F169" t="n">
-        <v>17.8158</v>
+        <v>0.2</v>
       </c>
       <c r="G169" t="n">
-        <v>2174.266666666667</v>
+        <v>2175.083333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6868,14 +6828,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6885,22 +6839,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="C170" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="D170" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="E170" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1</v>
+        <v>17.8158</v>
       </c>
       <c r="G170" t="n">
-        <v>2173.616666666667</v>
+        <v>2174.266666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6909,14 +6863,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6926,22 +6874,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="C171" t="n">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="D171" t="n">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="E171" t="n">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="F171" t="n">
-        <v>17.8559</v>
+        <v>0.1</v>
       </c>
       <c r="G171" t="n">
-        <v>2172.833333333333</v>
+        <v>2173.616666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6950,14 +6898,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6967,22 +6909,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="C172" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="D172" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="E172" t="n">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2</v>
+        <v>17.8559</v>
       </c>
       <c r="G172" t="n">
-        <v>2172.266666666667</v>
+        <v>2172.833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6991,14 +6933,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7008,22 +6944,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C173" t="n">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D173" t="n">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E173" t="n">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="F173" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="G173" t="n">
-        <v>2171.733333333333</v>
+        <v>2172.266666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7032,14 +6968,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7049,22 +6979,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="C174" t="n">
-        <v>2159</v>
+        <v>2173</v>
       </c>
       <c r="D174" t="n">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="E174" t="n">
-        <v>2159</v>
+        <v>2173</v>
       </c>
       <c r="F174" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="G174" t="n">
-        <v>2171.216666666667</v>
+        <v>2171.733333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7073,14 +7003,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7090,22 +7014,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C175" t="n">
-        <v>2174</v>
+        <v>2159</v>
       </c>
       <c r="D175" t="n">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="E175" t="n">
-        <v>2172</v>
+        <v>2159</v>
       </c>
       <c r="F175" t="n">
-        <v>101.3693062</v>
+        <v>0.2</v>
       </c>
       <c r="G175" t="n">
-        <v>2170.716666666667</v>
+        <v>2171.216666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7114,14 +7038,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7134,19 +7052,19 @@
         <v>2172</v>
       </c>
       <c r="C176" t="n">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="D176" t="n">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="E176" t="n">
         <v>2172</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1</v>
+        <v>101.3693062</v>
       </c>
       <c r="G176" t="n">
-        <v>2170.4</v>
+        <v>2170.716666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7155,14 +7073,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7172,22 +7084,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2163</v>
+        <v>2172</v>
       </c>
       <c r="C177" t="n">
-        <v>2163</v>
+        <v>2172</v>
       </c>
       <c r="D177" t="n">
-        <v>2163</v>
+        <v>2172</v>
       </c>
       <c r="E177" t="n">
-        <v>2163</v>
+        <v>2172</v>
       </c>
       <c r="F177" t="n">
-        <v>16.7771</v>
+        <v>0.1</v>
       </c>
       <c r="G177" t="n">
-        <v>2169.783333333333</v>
+        <v>2170.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7196,14 +7108,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7213,22 +7119,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2172</v>
+        <v>2163</v>
       </c>
       <c r="C178" t="n">
-        <v>2172</v>
+        <v>2163</v>
       </c>
       <c r="D178" t="n">
-        <v>2172</v>
+        <v>2163</v>
       </c>
       <c r="E178" t="n">
-        <v>2172</v>
+        <v>2163</v>
       </c>
       <c r="F178" t="n">
-        <v>0.1</v>
+        <v>16.7771</v>
       </c>
       <c r="G178" t="n">
-        <v>2169.483333333333</v>
+        <v>2169.783333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7237,14 +7143,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7254,22 +7154,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="C179" t="n">
-        <v>2161</v>
+        <v>2172</v>
       </c>
       <c r="D179" t="n">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="E179" t="n">
-        <v>2161</v>
+        <v>2172</v>
       </c>
       <c r="F179" t="n">
-        <v>23.1161</v>
+        <v>0.1</v>
       </c>
       <c r="G179" t="n">
-        <v>2168.933333333333</v>
+        <v>2169.483333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7278,14 +7178,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7295,22 +7189,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>2162</v>
+      </c>
+      <c r="C180" t="n">
         <v>2161</v>
       </c>
-      <c r="C180" t="n">
-        <v>2159</v>
-      </c>
       <c r="D180" t="n">
+        <v>2162</v>
+      </c>
+      <c r="E180" t="n">
         <v>2161</v>
       </c>
-      <c r="E180" t="n">
-        <v>2159</v>
-      </c>
       <c r="F180" t="n">
-        <v>54.1764</v>
+        <v>23.1161</v>
       </c>
       <c r="G180" t="n">
-        <v>2168.35</v>
+        <v>2168.933333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7319,14 +7213,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7336,22 +7224,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C181" t="n">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D181" t="n">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="E181" t="n">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F181" t="n">
-        <v>0.2</v>
+        <v>54.1764</v>
       </c>
       <c r="G181" t="n">
-        <v>2167.783333333333</v>
+        <v>2168.35</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7360,14 +7248,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7377,7 +7259,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="C182" t="n">
         <v>2160</v>
@@ -7386,13 +7268,13 @@
         <v>2160</v>
       </c>
       <c r="E182" t="n">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="F182" t="n">
-        <v>16.5771</v>
+        <v>0.2</v>
       </c>
       <c r="G182" t="n">
-        <v>2167.2</v>
+        <v>2167.783333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7401,14 +7283,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7294,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="C183" t="n">
         <v>2160</v>
@@ -7427,13 +7303,13 @@
         <v>2160</v>
       </c>
       <c r="E183" t="n">
-        <v>2149</v>
+        <v>2158</v>
       </c>
       <c r="F183" t="n">
-        <v>35.1022</v>
+        <v>16.5771</v>
       </c>
       <c r="G183" t="n">
-        <v>2166.866666666667</v>
+        <v>2167.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7442,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7459,22 +7329,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2159</v>
+        <v>2150</v>
       </c>
       <c r="C184" t="n">
-        <v>2148</v>
+        <v>2160</v>
       </c>
       <c r="D184" t="n">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E184" t="n">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="F184" t="n">
-        <v>22</v>
+        <v>35.1022</v>
       </c>
       <c r="G184" t="n">
-        <v>2166.183333333333</v>
+        <v>2166.866666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7483,14 +7353,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7500,22 +7364,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C185" t="n">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="D185" t="n">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="E185" t="n">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="F185" t="n">
-        <v>40.41</v>
+        <v>22</v>
       </c>
       <c r="G185" t="n">
-        <v>2165.783333333333</v>
+        <v>2166.183333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7524,14 +7388,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7541,22 +7399,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2147</v>
+        <v>2158</v>
       </c>
       <c r="C186" t="n">
-        <v>2147</v>
+        <v>2156</v>
       </c>
       <c r="D186" t="n">
-        <v>2147</v>
+        <v>2158</v>
       </c>
       <c r="E186" t="n">
-        <v>2147</v>
+        <v>2156</v>
       </c>
       <c r="F186" t="n">
-        <v>46.5333</v>
+        <v>40.41</v>
       </c>
       <c r="G186" t="n">
-        <v>2165.25</v>
+        <v>2165.783333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7565,14 +7423,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7585,19 +7437,19 @@
         <v>2147</v>
       </c>
       <c r="C187" t="n">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="D187" t="n">
         <v>2147</v>
       </c>
       <c r="E187" t="n">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>46.5333</v>
       </c>
       <c r="G187" t="n">
-        <v>2164.666666666667</v>
+        <v>2165.25</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7606,14 +7458,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7623,22 +7469,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="C188" t="n">
         <v>2145</v>
       </c>
       <c r="D188" t="n">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="E188" t="n">
         <v>2145</v>
       </c>
       <c r="F188" t="n">
-        <v>1530.8756</v>
+        <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>2164.083333333333</v>
+        <v>2164.666666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7647,14 +7493,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7676,10 +7516,10 @@
         <v>2145</v>
       </c>
       <c r="F189" t="n">
-        <v>269.7045</v>
+        <v>1530.8756</v>
       </c>
       <c r="G189" t="n">
-        <v>2163.483333333333</v>
+        <v>2164.083333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7688,14 +7528,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7705,22 +7539,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2140</v>
+        <v>2145</v>
       </c>
       <c r="C190" t="n">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="D190" t="n">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="E190" t="n">
-        <v>2140</v>
+        <v>2145</v>
       </c>
       <c r="F190" t="n">
-        <v>0.51</v>
+        <v>269.7045</v>
       </c>
       <c r="G190" t="n">
-        <v>2162.966666666667</v>
+        <v>2163.483333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7729,14 +7563,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7746,22 +7574,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C191" t="n">
-        <v>2140</v>
+        <v>2148</v>
       </c>
       <c r="D191" t="n">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="E191" t="n">
         <v>2140</v>
       </c>
       <c r="F191" t="n">
-        <v>7.5532</v>
+        <v>0.51</v>
       </c>
       <c r="G191" t="n">
-        <v>2162.216666666667</v>
+        <v>2162.966666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7770,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7790,19 +7612,19 @@
         <v>2141</v>
       </c>
       <c r="C192" t="n">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D192" t="n">
         <v>2141</v>
       </c>
       <c r="E192" t="n">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="F192" t="n">
-        <v>0.5468</v>
+        <v>7.5532</v>
       </c>
       <c r="G192" t="n">
-        <v>2161.45</v>
+        <v>2162.216666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7811,14 +7633,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7828,22 +7644,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="C193" t="n">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="D193" t="n">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="E193" t="n">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1</v>
+        <v>0.5468</v>
       </c>
       <c r="G193" t="n">
-        <v>2160.933333333333</v>
+        <v>2161.45</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7852,14 +7668,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7869,22 +7679,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="C194" t="n">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="D194" t="n">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="E194" t="n">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="F194" t="n">
-        <v>14.93</v>
+        <v>0.1</v>
       </c>
       <c r="G194" t="n">
-        <v>2160.616666666667</v>
+        <v>2160.933333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7893,14 +7703,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7913,19 +7717,19 @@
         <v>2150</v>
       </c>
       <c r="C195" t="n">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="D195" t="n">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="E195" t="n">
         <v>2150</v>
       </c>
       <c r="F195" t="n">
-        <v>149.4227</v>
+        <v>14.93</v>
       </c>
       <c r="G195" t="n">
-        <v>2160.266666666667</v>
+        <v>2160.616666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7934,14 +7738,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7951,22 +7749,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C196" t="n">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="D196" t="n">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="E196" t="n">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="F196" t="n">
-        <v>148.5216</v>
+        <v>149.4227</v>
       </c>
       <c r="G196" t="n">
-        <v>2159.9</v>
+        <v>2160.266666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7975,14 +7773,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7992,22 +7784,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="C197" t="n">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="D197" t="n">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="E197" t="n">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="F197" t="n">
-        <v>29.9505</v>
+        <v>148.5216</v>
       </c>
       <c r="G197" t="n">
-        <v>2159.4</v>
+        <v>2159.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8016,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8033,22 +7819,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="C198" t="n">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="D198" t="n">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="E198" t="n">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="F198" t="n">
-        <v>0.1</v>
+        <v>29.9505</v>
       </c>
       <c r="G198" t="n">
-        <v>2158.916666666667</v>
+        <v>2159.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8057,14 +7843,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8074,22 +7854,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="C199" t="n">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="D199" t="n">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="E199" t="n">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="F199" t="n">
         <v>0.1</v>
       </c>
       <c r="G199" t="n">
-        <v>2158.516666666667</v>
+        <v>2158.916666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8098,14 +7878,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8115,22 +7889,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="C200" t="n">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D200" t="n">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="E200" t="n">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="F200" t="n">
         <v>0.1</v>
       </c>
       <c r="G200" t="n">
-        <v>2158.15</v>
+        <v>2158.516666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8139,14 +7913,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8156,22 +7924,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="C201" t="n">
-        <v>2167</v>
+        <v>2156</v>
       </c>
       <c r="D201" t="n">
-        <v>2167</v>
+        <v>2156</v>
       </c>
       <c r="E201" t="n">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="F201" t="n">
-        <v>23.7661</v>
+        <v>0.1</v>
       </c>
       <c r="G201" t="n">
-        <v>2157.966666666667</v>
+        <v>2158.15</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8180,14 +7948,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8197,22 +7959,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2146</v>
+        <v>2160</v>
       </c>
       <c r="C202" t="n">
-        <v>2146</v>
+        <v>2167</v>
       </c>
       <c r="D202" t="n">
-        <v>2146</v>
+        <v>2167</v>
       </c>
       <c r="E202" t="n">
-        <v>2146</v>
+        <v>2160</v>
       </c>
       <c r="F202" t="n">
-        <v>16.3285</v>
+        <v>23.7661</v>
       </c>
       <c r="G202" t="n">
-        <v>2157.483333333333</v>
+        <v>2157.966666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8221,14 +7983,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8238,22 +7994,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2163</v>
+        <v>2146</v>
       </c>
       <c r="C203" t="n">
-        <v>2165</v>
+        <v>2146</v>
       </c>
       <c r="D203" t="n">
-        <v>2165</v>
+        <v>2146</v>
       </c>
       <c r="E203" t="n">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="F203" t="n">
-        <v>108.1148</v>
+        <v>16.3285</v>
       </c>
       <c r="G203" t="n">
-        <v>2157.4</v>
+        <v>2157.483333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8262,14 +8018,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8279,22 +8029,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="C204" t="n">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D204" t="n">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="E204" t="n">
-        <v>2167</v>
+        <v>2153</v>
       </c>
       <c r="F204" t="n">
-        <v>0.2</v>
+        <v>108.1148</v>
       </c>
       <c r="G204" t="n">
-        <v>2157.5</v>
+        <v>2157.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8303,14 +8053,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8320,19 +8064,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2157</v>
+        <v>2167</v>
       </c>
       <c r="C205" t="n">
-        <v>2156</v>
+        <v>2167</v>
       </c>
       <c r="D205" t="n">
-        <v>2157</v>
+        <v>2167</v>
       </c>
       <c r="E205" t="n">
-        <v>2156</v>
+        <v>2167</v>
       </c>
       <c r="F205" t="n">
-        <v>51.82</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="n">
         <v>2157.5</v>
@@ -8344,14 +8088,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8361,22 +8099,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="C206" t="n">
-        <v>2141</v>
+        <v>2156</v>
       </c>
       <c r="D206" t="n">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="E206" t="n">
-        <v>2141</v>
+        <v>2156</v>
       </c>
       <c r="F206" t="n">
-        <v>962.8021</v>
+        <v>51.82</v>
       </c>
       <c r="G206" t="n">
-        <v>2157.25</v>
+        <v>2157.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8385,14 +8123,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8402,22 +8134,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="C207" t="n">
-        <v>2164</v>
+        <v>2141</v>
       </c>
       <c r="D207" t="n">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="E207" t="n">
         <v>2141</v>
       </c>
       <c r="F207" t="n">
-        <v>962.8022</v>
+        <v>962.8021</v>
       </c>
       <c r="G207" t="n">
-        <v>2157.55</v>
+        <v>2157.25</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8426,14 +8158,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8443,22 +8169,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="C208" t="n">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="D208" t="n">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="E208" t="n">
-        <v>2166</v>
+        <v>2141</v>
       </c>
       <c r="F208" t="n">
-        <v>0.1</v>
+        <v>962.8022</v>
       </c>
       <c r="G208" t="n">
-        <v>2157.883333333333</v>
+        <v>2157.55</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8467,14 +8193,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8484,22 +8204,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="C209" t="n">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="D209" t="n">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="E209" t="n">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="F209" t="n">
         <v>0.1</v>
       </c>
       <c r="G209" t="n">
-        <v>2157.966666666667</v>
+        <v>2157.883333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8508,14 +8228,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8525,22 +8239,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2150</v>
+        <v>2161</v>
       </c>
       <c r="C210" t="n">
-        <v>2150</v>
+        <v>2161</v>
       </c>
       <c r="D210" t="n">
-        <v>2150</v>
+        <v>2161</v>
       </c>
       <c r="E210" t="n">
-        <v>2150</v>
+        <v>2161</v>
       </c>
       <c r="F210" t="n">
-        <v>100.1</v>
+        <v>0.1</v>
       </c>
       <c r="G210" t="n">
-        <v>2158.05</v>
+        <v>2157.966666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8549,14 +8263,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8566,22 +8274,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2166</v>
+        <v>2150</v>
       </c>
       <c r="C211" t="n">
-        <v>2166</v>
+        <v>2150</v>
       </c>
       <c r="D211" t="n">
-        <v>2166</v>
+        <v>2150</v>
       </c>
       <c r="E211" t="n">
-        <v>2166</v>
+        <v>2150</v>
       </c>
       <c r="F211" t="n">
-        <v>0.1</v>
+        <v>100.1</v>
       </c>
       <c r="G211" t="n">
-        <v>2158.4</v>
+        <v>2158.05</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8590,14 +8298,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8607,22 +8309,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C212" t="n">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="D212" t="n">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="E212" t="n">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="F212" t="n">
-        <v>163.2268</v>
+        <v>0.1</v>
       </c>
       <c r="G212" t="n">
-        <v>2158.733333333333</v>
+        <v>2158.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8631,14 +8333,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8648,22 +8344,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C213" t="n">
         <v>2169</v>
       </c>
       <c r="D213" t="n">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="E213" t="n">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F213" t="n">
-        <v>75.48</v>
+        <v>163.2268</v>
       </c>
       <c r="G213" t="n">
-        <v>2159.066666666667</v>
+        <v>2158.733333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8672,14 +8368,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8701,10 +8391,10 @@
         <v>2169</v>
       </c>
       <c r="F214" t="n">
-        <v>153.1199</v>
+        <v>75.48</v>
       </c>
       <c r="G214" t="n">
-        <v>2159.3</v>
+        <v>2159.066666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8713,14 +8403,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8742,10 +8426,10 @@
         <v>2169</v>
       </c>
       <c r="F215" t="n">
-        <v>316.66</v>
+        <v>153.1199</v>
       </c>
       <c r="G215" t="n">
-        <v>2159.5</v>
+        <v>2159.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8754,14 +8438,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8783,10 +8461,10 @@
         <v>2169</v>
       </c>
       <c r="F216" t="n">
-        <v>275.52</v>
+        <v>316.66</v>
       </c>
       <c r="G216" t="n">
-        <v>2159.633333333333</v>
+        <v>2159.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8795,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8824,10 +8496,10 @@
         <v>2169</v>
       </c>
       <c r="F217" t="n">
-        <v>365.3688</v>
+        <v>275.52</v>
       </c>
       <c r="G217" t="n">
-        <v>2160.033333333333</v>
+        <v>2159.633333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8836,14 +8508,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8853,22 +8519,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="C218" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="D218" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="E218" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="F218" t="n">
-        <v>0.2532</v>
+        <v>365.3688</v>
       </c>
       <c r="G218" t="n">
-        <v>2160.3</v>
+        <v>2160.033333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8877,14 +8543,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8894,22 +8554,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="C219" t="n">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="D219" t="n">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="E219" t="n">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="F219" t="n">
-        <v>114.1801</v>
+        <v>0.2532</v>
       </c>
       <c r="G219" t="n">
-        <v>2160.333333333333</v>
+        <v>2160.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8918,14 +8578,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8935,22 +8589,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="C220" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="D220" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="E220" t="n">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="F220" t="n">
-        <v>1009.4317</v>
+        <v>114.1801</v>
       </c>
       <c r="G220" t="n">
-        <v>2160.083333333333</v>
+        <v>2160.333333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8959,14 +8613,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8976,22 +8624,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2167</v>
+        <v>2155</v>
       </c>
       <c r="C221" t="n">
-        <v>2167</v>
+        <v>2155</v>
       </c>
       <c r="D221" t="n">
-        <v>2167</v>
+        <v>2155</v>
       </c>
       <c r="E221" t="n">
-        <v>2167</v>
+        <v>2155</v>
       </c>
       <c r="F221" t="n">
-        <v>0.1</v>
+        <v>1009.4317</v>
       </c>
       <c r="G221" t="n">
-        <v>2160.066666666667</v>
+        <v>2160.083333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9000,14 +8648,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9017,22 +8659,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="C222" t="n">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="D222" t="n">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="E222" t="n">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="F222" t="n">
-        <v>338.4</v>
+        <v>0.1</v>
       </c>
       <c r="G222" t="n">
-        <v>2160.016666666667</v>
+        <v>2160.066666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9041,14 +8683,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9070,10 +8706,10 @@
         <v>2164</v>
       </c>
       <c r="F223" t="n">
-        <v>165.2571</v>
+        <v>338.4</v>
       </c>
       <c r="G223" t="n">
-        <v>2159.833333333333</v>
+        <v>2160.016666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9082,14 +8718,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9099,22 +8729,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2154</v>
+        <v>2164</v>
       </c>
       <c r="C224" t="n">
-        <v>2141</v>
+        <v>2164</v>
       </c>
       <c r="D224" t="n">
-        <v>2154</v>
+        <v>2164</v>
       </c>
       <c r="E224" t="n">
-        <v>2141</v>
+        <v>2164</v>
       </c>
       <c r="F224" t="n">
-        <v>4200.0923</v>
+        <v>165.2571</v>
       </c>
       <c r="G224" t="n">
-        <v>2159.3</v>
+        <v>2159.833333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9123,14 +8753,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9143,19 +8767,19 @@
         <v>2154</v>
       </c>
       <c r="C225" t="n">
-        <v>2156</v>
+        <v>2141</v>
       </c>
       <c r="D225" t="n">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E225" t="n">
-        <v>2154</v>
+        <v>2141</v>
       </c>
       <c r="F225" t="n">
-        <v>442.58684424</v>
+        <v>4200.0923</v>
       </c>
       <c r="G225" t="n">
-        <v>2159.266666666667</v>
+        <v>2159.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9164,14 +8788,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9181,22 +8799,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="C226" t="n">
-        <v>2151</v>
+        <v>2156</v>
       </c>
       <c r="D226" t="n">
-        <v>2151</v>
+        <v>2156</v>
       </c>
       <c r="E226" t="n">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="F226" t="n">
-        <v>802.42</v>
+        <v>442.58684424</v>
       </c>
       <c r="G226" t="n">
-        <v>2158.983333333333</v>
+        <v>2159.266666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9205,14 +8823,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9222,22 +8834,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="C227" t="n">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="D227" t="n">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="E227" t="n">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="F227" t="n">
-        <v>0.1</v>
+        <v>802.42</v>
       </c>
       <c r="G227" t="n">
-        <v>2158.75</v>
+        <v>2158.983333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9246,14 +8858,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9263,22 +8869,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="C228" t="n">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="D228" t="n">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="E228" t="n">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="F228" t="n">
         <v>0.1</v>
       </c>
       <c r="G228" t="n">
-        <v>2158.55</v>
+        <v>2158.75</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9287,14 +8893,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9304,39 +8904,68 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>2165</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2165</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2165</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2165</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2158.55</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
         <v>2167</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C230" t="n">
         <v>2167</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D230" t="n">
         <v>2167</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E230" t="n">
         <v>2167</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F230" t="n">
         <v>85.4931</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G230" t="n">
         <v>2158.633333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>2161</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest HC.xlsx
+++ b/BackTest/2019-11-02 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N298"/>
+  <dimension ref="A1:M298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>5133.0341</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>5286.267</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>2147</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2147</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>5286.267</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>2155</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,24 +562,23 @@
         <v>5286.267</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="J5" t="n">
-        <v>2155</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+        <v>2147</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,22 +603,15 @@
         <v>5207.947099999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -646,24 +636,19 @@
         <v>5245.882599999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="J7" t="n">
         <v>2150</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -688,22 +673,21 @@
         <v>5557.387599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2150</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,22 +712,23 @@
         <v>5520.912899999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+        <v>2180</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2150</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,22 +753,15 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -808,22 +786,19 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>2175</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2175</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -848,22 +823,23 @@
         <v>5454.059899999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>2175</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2175</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -888,24 +864,23 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="J13" t="n">
-        <v>2155</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>2175</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -932,20 +907,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -972,20 +940,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1012,20 +973,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1050,24 +1004,15 @@
         <v>5610.7194</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1094,20 +1039,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1132,24 +1070,15 @@
         <v>5091.9741</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1176,20 +1105,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1216,20 +1138,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1256,20 +1171,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1296,20 +1204,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1336,20 +1237,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1376,20 +1270,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1416,20 +1303,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1456,20 +1336,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1496,20 +1369,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1536,20 +1402,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1576,20 +1435,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1616,20 +1468,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,20 +1501,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1696,20 +1534,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1736,20 +1567,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1776,20 +1600,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1816,20 +1633,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1856,20 +1666,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1896,20 +1699,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1936,20 +1732,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1976,20 +1765,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2016,20 +1798,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2056,20 +1831,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2096,20 +1864,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2136,20 +1897,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2176,20 +1930,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2216,20 +1963,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2256,20 +1996,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2296,20 +2029,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2336,20 +2062,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2376,20 +2095,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2416,20 +2128,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2456,20 +2161,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2496,20 +2194,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2536,20 +2227,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2576,20 +2260,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2616,20 +2293,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2656,20 +2326,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2696,20 +2359,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2736,20 +2392,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2776,20 +2425,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2816,20 +2458,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2856,20 +2491,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2896,20 +2524,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2936,20 +2557,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2976,20 +2590,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3016,20 +2623,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3056,20 +2656,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3096,20 +2689,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3136,20 +2722,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3176,20 +2755,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3216,20 +2788,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3256,20 +2821,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3296,20 +2854,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3336,20 +2887,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3376,20 +2920,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3414,24 +2951,15 @@
         <v>5696.365123090002</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3456,24 +2984,15 @@
         <v>5715.793123090002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3498,24 +3017,15 @@
         <v>5548.311323090003</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3542,20 +3052,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3580,24 +3083,15 @@
         <v>5532.017723090003</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3622,24 +3116,15 @@
         <v>5580.300623090003</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3664,24 +3149,15 @@
         <v>5275.715123090003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3706,24 +3182,15 @@
         <v>5275.815123090003</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3748,24 +3215,15 @@
         <v>3761.376123090003</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3790,24 +3248,15 @@
         <v>3761.876123090003</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3832,24 +3281,15 @@
         <v>3761.976123090003</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3876,20 +3316,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3914,24 +3347,15 @@
         <v>3762.176123090002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3958,20 +3382,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3998,20 +3415,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4038,20 +3448,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4078,20 +3481,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4118,20 +3514,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4158,20 +3547,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4198,20 +3580,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4238,20 +3613,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4278,20 +3646,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4318,20 +3679,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4358,20 +3712,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4398,20 +3745,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4438,20 +3778,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4478,20 +3811,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4518,20 +3844,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4558,20 +3877,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4598,20 +3910,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4638,20 +3943,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4678,20 +3976,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4716,24 +4007,15 @@
         <v>4828.298023090003</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4758,24 +4040,15 @@
         <v>4828.298023090003</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4800,24 +4073,15 @@
         <v>4830.298023090003</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4844,20 +4108,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4884,20 +4141,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4924,20 +4174,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4964,20 +4207,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5004,20 +4240,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5044,20 +4273,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5084,20 +4306,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5124,20 +4339,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5164,20 +4372,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5204,20 +4405,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5244,20 +4438,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5284,20 +4471,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5324,20 +4504,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5364,20 +4537,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5404,20 +4570,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5444,20 +4603,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5482,24 +4634,15 @@
         <v>4184.308616470004</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5524,24 +4667,15 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5566,24 +4700,15 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5608,24 +4733,15 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5650,24 +4766,15 @@
         <v>3837.171916470004</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5692,24 +4799,15 @@
         <v>3837.271916470004</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5734,24 +4832,15 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5776,24 +4865,15 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5818,24 +4898,15 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5860,24 +4931,15 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5902,24 +4964,15 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5944,24 +4997,19 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="J138" t="n">
         <v>2152</v>
       </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5986,24 +5034,23 @@
         <v>-1766.153183529996</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="J139" t="n">
         <v>2152</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6028,24 +5075,21 @@
         <v>-1876.616183529996</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2169</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+        <v>2152</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6070,24 +5114,15 @@
         <v>-3350.616183529996</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6112,24 +5147,15 @@
         <v>-3350.516183529996</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>2150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6154,24 +5180,15 @@
         <v>-3371.216983529996</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>2169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6196,24 +5213,15 @@
         <v>-3343.653883529997</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6238,24 +5246,15 @@
         <v>-3343.753883529997</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>2166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6280,24 +5279,15 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>2147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6322,24 +5312,15 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>2170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6366,20 +5347,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6406,20 +5380,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6446,20 +5413,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6486,20 +5446,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6526,20 +5479,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6566,20 +5512,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6606,20 +5545,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6646,20 +5578,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6686,20 +5611,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6726,20 +5644,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6766,20 +5677,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6806,20 +5710,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6846,20 +5743,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6886,20 +5776,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6926,20 +5809,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6966,20 +5842,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7006,20 +5875,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7046,20 +5908,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7086,20 +5941,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7126,20 +5974,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7166,20 +6007,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7206,20 +6040,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7246,20 +6073,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7286,20 +6106,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7326,20 +6139,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7366,20 +6172,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7406,20 +6205,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7446,20 +6238,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7486,20 +6271,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7526,20 +6304,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7566,20 +6337,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7606,20 +6370,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7646,20 +6403,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7686,20 +6436,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7726,20 +6469,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7766,20 +6502,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7806,20 +6535,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7846,20 +6568,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7886,20 +6601,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7926,20 +6634,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7966,20 +6667,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8006,20 +6700,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8046,20 +6733,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8086,20 +6766,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8126,20 +6799,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8166,20 +6832,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8206,20 +6865,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8246,20 +6898,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8286,20 +6931,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8326,20 +6964,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8366,20 +6997,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8406,20 +7030,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8446,20 +7063,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8486,20 +7096,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8526,20 +7129,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8566,20 +7162,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8606,20 +7195,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8646,20 +7228,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8686,20 +7261,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8726,20 +7294,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8766,20 +7327,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8806,20 +7360,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8846,20 +7393,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8886,20 +7426,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8926,20 +7459,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8966,20 +7492,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9006,20 +7525,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9046,20 +7558,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9086,20 +7591,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9126,20 +7624,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9166,20 +7657,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9206,20 +7690,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9246,20 +7723,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9286,20 +7756,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9326,20 +7789,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9366,20 +7822,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9406,20 +7855,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9446,20 +7888,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9486,20 +7921,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9526,20 +7954,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9566,20 +7987,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9606,20 +8020,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9646,20 +8053,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9686,20 +8086,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9726,20 +8119,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9766,20 +8152,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9806,20 +8185,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9844,22 +8216,15 @@
         <v>79701.39707550003</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9884,22 +8249,15 @@
         <v>79684.61997550003</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9924,22 +8282,15 @@
         <v>79684.71997550003</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9964,22 +8315,15 @@
         <v>79661.60387550003</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10006,18 +8350,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L239" t="n">
+        <v>1</v>
       </c>
       <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10044,16 +8383,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10078,18 +8414,15 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10116,16 +8449,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10152,16 +8482,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10188,16 +8515,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10222,18 +8546,15 @@
         <v>79579.50417550004</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10258,18 +8579,15 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10294,18 +8612,15 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10330,18 +8645,15 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10368,16 +8680,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10404,16 +8713,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10440,16 +8746,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10476,16 +8779,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10512,16 +8812,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10548,16 +8845,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10584,16 +8878,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10620,16 +8911,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10656,16 +8944,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10692,16 +8977,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10728,16 +9010,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10764,16 +9043,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10798,18 +9074,15 @@
         <v>79265.88057550005</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10836,16 +9109,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10870,18 +9140,15 @@
         <v>79374.19537550004</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10906,18 +9173,15 @@
         <v>79322.37537550004</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10942,18 +9206,15 @@
         <v>78359.57327550004</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10978,18 +9239,15 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11014,18 +9272,15 @@
         <v>79322.47547550005</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11050,18 +9305,15 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11086,18 +9338,15 @@
         <v>79222.27547550004</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11122,18 +9371,15 @@
         <v>79222.37547550004</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11158,18 +9404,15 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11194,18 +9437,15 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11230,18 +9470,15 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11266,18 +9503,15 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11302,18 +9536,15 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11338,18 +9569,15 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11374,18 +9602,15 @@
         <v>79385.34907550004</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11410,18 +9635,15 @@
         <v>79499.52917550004</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11446,18 +9668,15 @@
         <v>78490.09747550004</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11482,18 +9701,15 @@
         <v>78490.19747550004</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11518,18 +9734,15 @@
         <v>78151.79747550005</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11554,18 +9767,15 @@
         <v>78151.79747550005</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11590,18 +9800,15 @@
         <v>73951.70517550004</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11626,18 +9833,15 @@
         <v>74394.29201974004</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11662,18 +9866,15 @@
         <v>73591.87201974004</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11698,18 +9899,15 @@
         <v>73591.97201974005</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11734,18 +9932,15 @@
         <v>73592.07201974005</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11770,18 +9965,15 @@
         <v>73677.56511974006</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11808,16 +10000,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11842,18 +10031,15 @@
         <v>75411.59301974006</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11878,18 +10064,15 @@
         <v>76081.12291974005</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11914,18 +10097,15 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11950,18 +10130,15 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11986,18 +10163,15 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -12022,18 +10196,15 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -12058,18 +10229,15 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12094,18 +10262,15 @@
         <v>76301.49371974004</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12130,20 +10295,17 @@
         <v>76201.52431974004</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest HC.xlsx
+++ b/BackTest/2019-11-02 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5133.0341</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5286.267</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2147</v>
@@ -521,7 +521,7 @@
         <v>5286.267</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2155</v>
@@ -562,7 +562,7 @@
         <v>5286.267</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2155</v>
@@ -605,9 +605,17 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,15 +644,19 @@
         <v>5245.882599999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2150</v>
       </c>
       <c r="J7" t="n">
-        <v>2150</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>2147</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,13 +687,15 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>2161</v>
+      </c>
       <c r="J8" t="n">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -712,17 +726,15 @@
         <v>5520.912899999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -753,11 +765,17 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,15 +804,17 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2175</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>2147</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,17 +843,17 @@
         <v>5454.059899999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2175</v>
       </c>
       <c r="J12" t="n">
-        <v>2175</v>
+        <v>2147</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -864,17 +884,17 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>2155</v>
       </c>
       <c r="J13" t="n">
-        <v>2175</v>
+        <v>2147</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -905,11 +925,19 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2172</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -938,11 +966,19 @@
         <v>5531.0794</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2172</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +1007,19 @@
         <v>5610.5994</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2153</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1004,11 +1048,19 @@
         <v>5610.7194</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2157</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1037,11 +1089,19 @@
         <v>5086.9866</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2168</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1073,8 +1133,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1106,8 +1172,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1139,8 +1211,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1172,8 +1250,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1205,8 +1289,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1238,8 +1328,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1271,8 +1367,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1304,8 +1406,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1337,8 +1445,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1370,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1403,8 +1523,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1436,8 +1562,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1469,8 +1601,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1502,8 +1640,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1535,8 +1679,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1568,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1601,8 +1757,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1634,8 +1796,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1667,8 +1835,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1700,8 +1874,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1733,8 +1913,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1766,8 +1952,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1799,8 +1991,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1832,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1865,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1898,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1931,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1964,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2225,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2030,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2063,8 +2303,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2096,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2129,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2162,8 +2420,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2195,8 +2459,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2228,8 +2498,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2261,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2294,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2327,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2360,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2393,8 +2693,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2426,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2459,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2492,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2525,8 +2849,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2558,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2591,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2624,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2657,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2690,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2723,8 +3083,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2756,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2789,8 +3161,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2822,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2855,8 +3239,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2888,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2921,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2954,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2987,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3020,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3053,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3086,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3119,8 +3551,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3152,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3185,8 +3629,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3218,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3251,8 +3707,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3284,8 +3746,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3317,8 +3785,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3350,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3383,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3416,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3449,8 +3941,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3482,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3515,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3548,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3581,8 +4097,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3614,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3647,8 +4175,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3680,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3713,8 +4253,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3746,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3779,8 +4331,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3812,8 +4370,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3845,8 +4409,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3878,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3911,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3944,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3977,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4010,8 +4604,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4043,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4076,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4109,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4142,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4175,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4208,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4241,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4274,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4340,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4373,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4406,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4439,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4472,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4505,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4538,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4571,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4604,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4637,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4667,11 +5381,19 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2165</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +5422,19 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2160</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4733,11 +5463,19 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2160</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4766,11 +5504,19 @@
         <v>3837.171916470004</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2160</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +5545,19 @@
         <v>3837.271916470004</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +5586,19 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2170</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4865,11 +5627,19 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +5668,19 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +5709,19 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4964,11 +5750,19 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4997,15 +5791,19 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>2152</v>
       </c>
       <c r="J138" t="n">
-        <v>2152</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+        <v>2147</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5034,17 +5832,17 @@
         <v>-1766.153183529996</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>2152</v>
       </c>
       <c r="J139" t="n">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5075,15 +5873,17 @@
         <v>-1876.616183529996</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2169</v>
+      </c>
       <c r="J140" t="n">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5114,11 +5914,19 @@
         <v>-3350.616183529996</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5147,11 +5955,19 @@
         <v>-3350.516183529996</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2150</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +5996,19 @@
         <v>-3371.216983529996</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2169</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5213,11 +6037,19 @@
         <v>-3343.653883529997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2157</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5249,8 +6081,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5279,11 +6117,19 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2147</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5315,8 +6161,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5348,8 +6200,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5381,8 +6239,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5414,8 +6278,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5447,8 +6317,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5480,8 +6356,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5513,8 +6395,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5546,8 +6434,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5579,8 +6473,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5612,8 +6512,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5645,8 +6551,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5678,8 +6590,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5711,8 +6629,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +6668,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6707,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5810,8 +6746,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5843,8 +6785,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5876,8 +6824,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5909,8 +6863,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5942,8 +6902,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5975,8 +6941,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6008,8 +6980,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6041,8 +7019,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6074,8 +7058,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6107,8 +7097,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6140,8 +7136,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6173,8 +7175,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6206,8 +7214,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6239,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6272,8 +7292,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6305,8 +7331,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6338,8 +7370,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6371,8 +7409,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6404,8 +7448,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6437,8 +7487,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6470,8 +7526,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6503,8 +7565,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6536,8 +7604,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6569,8 +7643,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6602,8 +7682,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6635,8 +7721,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6668,8 +7760,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6701,8 +7799,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6734,8 +7838,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6767,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6800,8 +7916,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6833,8 +7955,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6866,8 +7994,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6899,8 +8033,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +8072,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6962,13 +8108,19 @@
         <v>82770.84375789002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>1.009438751746623</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -6995,7 +8147,7 @@
         <v>82716.43465789001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7028,7 +8180,7 @@
         <v>82773.03465789002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7061,7 +8213,7 @@
         <v>82773.03465789002</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7094,7 +8246,7 @@
         <v>82673.28205789001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7127,7 +8279,7 @@
         <v>82614.89005789001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7160,7 +8312,7 @@
         <v>82597.89005789001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7193,7 +8345,7 @@
         <v>81896.03805789001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7226,7 +8378,7 @@
         <v>81896.03805789001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7259,7 +8411,7 @@
         <v>80798.21335789001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7292,7 +8444,7 @@
         <v>80798.21335789001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7325,7 +8477,7 @@
         <v>80915.05365789001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7358,7 +8510,7 @@
         <v>79986.92925789001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7391,7 +8543,7 @@
         <v>79986.92925789001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7424,7 +8576,7 @@
         <v>79987.15925789</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7457,7 +8609,7 @@
         <v>79987.15925789</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7490,7 +8642,7 @@
         <v>79987.65925789</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7523,7 +8675,7 @@
         <v>79987.75925789001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7556,7 +8708,7 @@
         <v>79987.95925789</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7589,7 +8741,7 @@
         <v>79970.15715789</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7622,7 +8774,7 @@
         <v>79970.25715789001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7655,7 +8807,7 @@
         <v>79971.05715789001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7688,7 +8840,7 @@
         <v>79971.15715789002</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7721,7 +8873,7 @@
         <v>79870.15715789002</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7754,7 +8906,7 @@
         <v>79769.15715789002</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7787,7 +8939,7 @@
         <v>79769.25715789002</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7886,7 +9038,7 @@
         <v>79594.32115789004</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7985,7 +9137,7 @@
         <v>79612.88366930003</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8018,7 +9170,7 @@
         <v>79612.98366930004</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8051,7 +9203,7 @@
         <v>79595.12776930004</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8084,7 +9236,7 @@
         <v>79595.32776930004</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8117,7 +9269,7 @@
         <v>79600.32776930004</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8150,7 +9302,7 @@
         <v>79600.12776930004</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8183,7 +9335,7 @@
         <v>79701.49707550004</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8216,7 +9368,7 @@
         <v>79701.39707550003</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8249,7 +9401,7 @@
         <v>79684.61997550003</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8282,7 +9434,7 @@
         <v>79684.71997550003</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8315,7 +9467,7 @@
         <v>79661.60387550003</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8348,7 +9500,7 @@
         <v>79607.42747550004</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8381,7 +9533,7 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8414,7 +9566,7 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8447,7 +9599,7 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8480,7 +9632,7 @@
         <v>79585.62747550003</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8513,7 +9665,7 @@
         <v>79626.03747550004</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8546,7 +9698,7 @@
         <v>79579.50417550004</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8579,7 +9731,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8612,7 +9764,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8645,7 +9797,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8678,7 +9830,7 @@
         <v>79578.01417550004</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8711,7 +9863,7 @@
         <v>79570.46097550004</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8744,7 +9896,7 @@
         <v>79571.00777550004</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8777,7 +9929,7 @@
         <v>79571.10777550004</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8810,7 +9962,7 @@
         <v>79586.03777550004</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8843,7 +9995,7 @@
         <v>79436.61507550004</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8876,7 +10028,7 @@
         <v>79288.09347550005</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8909,7 +10061,7 @@
         <v>79258.14297550004</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8942,7 +10094,7 @@
         <v>79258.24297550005</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9074,7 +10226,7 @@
         <v>79265.88057550005</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9140,7 +10292,7 @@
         <v>79374.19537550004</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9173,7 +10325,7 @@
         <v>79322.37537550004</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9206,7 +10358,7 @@
         <v>78359.57327550004</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9239,7 +10391,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9272,7 +10424,7 @@
         <v>79322.47547550005</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9305,7 +10457,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9338,7 +10490,7 @@
         <v>79222.27547550004</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9371,7 +10523,7 @@
         <v>79222.37547550004</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9404,7 +10556,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9437,7 +10589,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9470,7 +10622,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9503,7 +10655,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9536,7 +10688,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9569,7 +10721,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9602,7 +10754,7 @@
         <v>79385.34907550004</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9635,7 +10787,7 @@
         <v>79499.52917550004</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9668,7 +10820,7 @@
         <v>78490.09747550004</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9701,7 +10853,7 @@
         <v>78490.19747550004</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9734,7 +10886,7 @@
         <v>78151.79747550005</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9767,7 +10919,7 @@
         <v>78151.79747550005</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9800,7 +10952,7 @@
         <v>73951.70517550004</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9833,7 +10985,7 @@
         <v>74394.29201974004</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9866,7 +11018,7 @@
         <v>73591.87201974004</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9899,7 +11051,7 @@
         <v>73591.97201974005</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9932,7 +11084,7 @@
         <v>73592.07201974005</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9965,7 +11117,7 @@
         <v>73677.56511974006</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9998,7 +11150,7 @@
         <v>75134.36601974006</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10031,7 +11183,7 @@
         <v>75411.59301974006</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10064,7 +11216,7 @@
         <v>76081.12291974005</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10097,7 +11249,7 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10130,7 +11282,7 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10163,7 +11315,7 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10196,7 +11348,7 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10229,7 +11381,7 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10262,7 +11414,7 @@
         <v>76301.49371974004</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10295,7 +11447,7 @@
         <v>76201.52431974004</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10306,6 +11458,6 @@
       <c r="M298" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest HC.xlsx
+++ b/BackTest/2019-11-02 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5133.0341</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>5286.267</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2147</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2147</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>5286.267</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2155</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>5286.267</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2155</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>5207.947099999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2155</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>5245.882599999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>5557.387599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2161</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -729,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,19 +781,11 @@
         <v>5454.059899999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2175</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -884,19 +814,11 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2155</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -925,19 +847,11 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2172</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -966,19 +880,11 @@
         <v>5531.0794</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2172</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1007,19 +913,11 @@
         <v>5610.5994</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2153</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1048,19 +946,11 @@
         <v>5610.7194</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2157</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1089,19 +979,11 @@
         <v>5086.9866</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2168</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1133,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1172,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1250,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1367,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1445,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1523,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1562,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1601,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1640,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1679,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1718,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1757,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1796,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1835,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1913,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2069,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2147,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2186,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2225,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2264,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2459,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2537,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2654,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2693,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2810,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2849,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3044,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3083,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3122,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3161,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3200,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3317,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3395,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3434,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3473,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3512,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3551,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3590,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3629,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3668,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3707,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3746,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3785,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3821,17 +3289,15 @@
         <v>3762.176123090002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2137</v>
+      </c>
       <c r="J88" t="n">
-        <v>2147</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2137</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3864,11 +3330,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3899,15 +3365,17 @@
         <v>3852.392823090002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2145</v>
+      </c>
       <c r="J90" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3938,15 +3406,17 @@
         <v>4158.302423090003</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2164</v>
+      </c>
       <c r="J91" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3977,11 +3447,13 @@
         <v>4014.425723090003</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2173</v>
+      </c>
       <c r="J92" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4016,11 +3488,13 @@
         <v>4665.428423090003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2157</v>
+      </c>
       <c r="J93" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4059,7 +3533,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4098,7 +3572,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4133,11 +3607,13 @@
         <v>4869.676723090002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2161</v>
+      </c>
       <c r="J96" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4176,7 +3652,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4215,7 +3691,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4254,7 +3730,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4293,7 +3769,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4332,7 +3808,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4371,7 +3847,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4410,7 +3886,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4449,7 +3925,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4488,7 +3964,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4527,7 +4003,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4566,7 +4042,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4605,7 +4081,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4644,7 +4120,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4683,7 +4159,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4722,7 +4198,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4761,7 +4237,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4800,7 +4276,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4839,7 +4315,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4878,7 +4354,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4917,7 +4393,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4956,7 +4432,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4995,7 +4471,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5034,7 +4510,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5073,7 +4549,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5112,7 +4588,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5151,7 +4627,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5190,7 +4666,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5229,7 +4705,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5268,7 +4744,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5307,7 +4783,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5346,7 +4822,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5381,13 +4857,11 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5422,13 +4896,11 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5463,13 +4935,11 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5504,13 +4974,11 @@
         <v>3837.171916470004</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5545,13 +5013,11 @@
         <v>3837.271916470004</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5586,13 +5052,11 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5627,13 +5091,11 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5668,13 +5130,11 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5709,13 +5169,11 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5750,13 +5208,11 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5791,13 +5247,11 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5832,13 +5286,11 @@
         <v>-1766.153183529996</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5873,13 +5325,11 @@
         <v>-1876.616183529996</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5914,13 +5364,11 @@
         <v>-3350.616183529996</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5955,13 +5403,11 @@
         <v>-3350.516183529996</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5996,13 +5442,11 @@
         <v>-3371.216983529996</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6037,13 +5481,11 @@
         <v>-3343.653883529997</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6082,7 +5524,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6117,13 +5559,11 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6162,7 +5602,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6201,7 +5641,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6240,7 +5680,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6279,7 +5719,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6318,7 +5758,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6357,7 +5797,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6396,7 +5836,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6435,7 +5875,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6474,7 +5914,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6513,7 +5953,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6552,7 +5992,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6591,7 +6031,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6630,7 +6070,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6669,7 +6109,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6708,7 +6148,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6747,7 +6187,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6786,7 +6226,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6825,7 +6265,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6864,7 +6304,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6903,7 +6343,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6942,7 +6382,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6981,7 +6421,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7020,7 +6460,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7059,7 +6499,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7098,7 +6538,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7137,7 +6577,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7176,7 +6616,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7215,7 +6655,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7254,7 +6694,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7293,7 +6733,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7332,7 +6772,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7371,7 +6811,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7410,7 +6850,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7449,7 +6889,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7488,7 +6928,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7527,7 +6967,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7566,7 +7006,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7605,7 +7045,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7644,7 +7084,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7683,7 +7123,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7722,7 +7162,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7761,7 +7201,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7800,7 +7240,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7839,7 +7279,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7878,7 +7318,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7917,7 +7357,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7956,7 +7396,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7995,7 +7435,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8034,7 +7474,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8073,7 +7513,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8108,19 +7548,19 @@
         <v>82770.84375789002</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.009438751746623</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -8147,11 +7587,17 @@
         <v>82716.43465789001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8180,11 +7626,17 @@
         <v>82773.03465789002</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8213,11 +7665,17 @@
         <v>82773.03465789002</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8246,11 +7704,17 @@
         <v>82673.28205789001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8279,11 +7743,17 @@
         <v>82614.89005789001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8312,11 +7782,17 @@
         <v>82597.89005789001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8345,11 +7821,17 @@
         <v>81896.03805789001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8378,11 +7860,17 @@
         <v>81896.03805789001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8411,11 +7899,17 @@
         <v>80798.21335789001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8444,11 +7938,17 @@
         <v>80798.21335789001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8477,11 +7977,17 @@
         <v>80915.05365789001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8510,11 +8016,17 @@
         <v>79986.92925789001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8543,11 +8055,17 @@
         <v>79986.92925789001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8576,11 +8094,17 @@
         <v>79987.15925789</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8609,11 +8133,17 @@
         <v>79987.15925789</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8642,11 +8172,17 @@
         <v>79987.65925789</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8675,11 +8211,17 @@
         <v>79987.75925789001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8708,11 +8250,17 @@
         <v>79987.95925789</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8741,11 +8289,17 @@
         <v>79970.15715789</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8774,11 +8328,17 @@
         <v>79970.25715789001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +8367,17 @@
         <v>79971.05715789001</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8840,11 +8406,17 @@
         <v>79971.15715789002</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8873,11 +8445,17 @@
         <v>79870.15715789002</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8906,11 +8484,17 @@
         <v>79769.15715789002</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8939,11 +8523,17 @@
         <v>79769.25715789002</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8975,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9008,8 +8604,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9038,11 +8640,17 @@
         <v>79594.32115789004</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9074,8 +8682,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9107,8 +8721,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9137,11 +8757,17 @@
         <v>79612.88366930003</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9170,11 +8796,17 @@
         <v>79612.98366930004</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9203,11 +8835,17 @@
         <v>79595.12776930004</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9236,11 +8874,17 @@
         <v>79595.32776930004</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9269,11 +8913,17 @@
         <v>79600.32776930004</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9302,11 +8952,17 @@
         <v>79600.12776930004</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9335,11 +8991,17 @@
         <v>79701.49707550004</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9368,11 +9030,17 @@
         <v>79701.39707550003</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9401,11 +9069,17 @@
         <v>79684.61997550003</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9434,11 +9108,17 @@
         <v>79684.71997550003</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9467,11 +9147,17 @@
         <v>79661.60387550003</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9500,11 +9186,17 @@
         <v>79607.42747550004</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9533,11 +9225,17 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9566,11 +9264,17 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9602,10 +9306,16 @@
         <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L242" t="n">
-        <v>1</v>
+        <v>1.005762751520824</v>
       </c>
       <c r="M242" t="inlineStr"/>
     </row>
@@ -10127,7 +9837,7 @@
         <v>79258.34297550005</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10160,7 +9870,7 @@
         <v>79258.44297550006</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10193,7 +9903,7 @@
         <v>79282.20907550005</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10259,7 +9969,7 @@
         <v>79373.99537550005</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10292,7 +10002,7 @@
         <v>79374.19537550004</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10325,7 +10035,7 @@
         <v>79322.37537550004</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10358,7 +10068,7 @@
         <v>78359.57327550004</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10391,7 +10101,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10424,7 +10134,7 @@
         <v>79322.47547550005</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10457,7 +10167,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10490,7 +10200,7 @@
         <v>79222.27547550004</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10523,7 +10233,7 @@
         <v>79222.37547550004</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10622,7 +10332,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10655,7 +10365,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11348,7 +11058,7 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11381,7 +11091,7 @@
         <v>76062.89361974005</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11414,7 +11124,7 @@
         <v>76301.49371974004</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11447,7 +11157,7 @@
         <v>76201.52431974004</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11458,6 +11168,6 @@
       <c r="M298" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest HC.xlsx
+++ b/BackTest/2019-11-02 BackTest HC.xlsx
@@ -451,7 +451,7 @@
         <v>5133.0341</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>5286.267</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2147</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2147</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>5286.267</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>5286.267</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>5207.947099999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>5245.882599999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2150</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>5557.387599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2161</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>5520.912899999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2169</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2175</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>5454.059899999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2175</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2155</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2172</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>5531.0794</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2172</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1016,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1052,19 @@
         <v>5610.7194</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2157</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1096,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1135,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1174,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1213,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1252,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1291,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1330,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1369,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1408,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1447,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1486,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1525,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1564,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1603,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1681,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,13 +1834,19 @@
         <v>5836.6728</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>1.020617140195622</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -3124,10 +3358,14 @@
         <v>5275.815123090003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2118</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2118</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3160,8 +3398,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2118</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3437,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2118</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3476,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2118</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3515,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2118</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,15 +3551,17 @@
         <v>3762.176123090002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>2118</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3330,11 +3594,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3365,17 +3629,15 @@
         <v>3852.392823090002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3406,17 +3668,15 @@
         <v>4158.302423090003</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3447,13 +3707,11 @@
         <v>4014.425723090003</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3488,13 +3746,11 @@
         <v>4665.428423090003</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3533,7 +3789,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3572,7 +3828,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3607,13 +3863,11 @@
         <v>4869.676723090002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3652,7 +3906,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3691,7 +3945,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3730,7 +3984,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3769,7 +4023,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3808,7 +4062,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3847,7 +4101,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3886,7 +4140,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3925,7 +4179,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3964,7 +4218,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4003,7 +4257,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4042,7 +4296,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4077,11 +4331,13 @@
         <v>4828.298023090003</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2155</v>
+      </c>
       <c r="J108" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4116,11 +4372,13 @@
         <v>4828.298023090003</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2160</v>
+      </c>
       <c r="J109" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4155,11 +4413,13 @@
         <v>4830.298023090003</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2160</v>
+      </c>
       <c r="J110" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4198,7 +4458,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4237,7 +4497,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4276,7 +4536,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4315,7 +4575,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4354,7 +4614,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4393,7 +4653,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4432,7 +4692,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4471,7 +4731,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4510,7 +4770,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4549,7 +4809,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4588,7 +4848,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4623,11 +4883,13 @@
         <v>4769.270416470004</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2167</v>
+      </c>
       <c r="J122" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4662,11 +4924,13 @@
         <v>4769.370416470004</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2167</v>
+      </c>
       <c r="J123" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4701,11 +4965,13 @@
         <v>4200.298116470004</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2174</v>
+      </c>
       <c r="J124" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4740,11 +5006,13 @@
         <v>4184.308616470004</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2166</v>
+      </c>
       <c r="J125" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4779,11 +5047,13 @@
         <v>4184.308616470004</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2165</v>
+      </c>
       <c r="J126" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4818,11 +5088,13 @@
         <v>4184.308616470004</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2165</v>
+      </c>
       <c r="J127" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4857,11 +5129,13 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2165</v>
+      </c>
       <c r="J128" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4896,11 +5170,13 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2160</v>
+      </c>
       <c r="J129" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4935,11 +5211,13 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2160</v>
+      </c>
       <c r="J130" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4974,11 +5252,13 @@
         <v>3837.171916470004</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2160</v>
+      </c>
       <c r="J131" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5013,11 +5293,13 @@
         <v>3837.271916470004</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2155</v>
+      </c>
       <c r="J132" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5052,11 +5334,13 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2170</v>
+      </c>
       <c r="J133" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5091,11 +5375,13 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2155</v>
+      </c>
       <c r="J134" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5130,11 +5416,13 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2155</v>
+      </c>
       <c r="J135" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5169,11 +5457,13 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2155</v>
+      </c>
       <c r="J136" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5208,11 +5498,13 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2155</v>
+      </c>
       <c r="J137" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5247,11 +5539,13 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2152</v>
+      </c>
       <c r="J138" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5286,11 +5580,13 @@
         <v>-1766.153183529996</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2152</v>
+      </c>
       <c r="J139" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5325,11 +5621,13 @@
         <v>-1876.616183529996</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2169</v>
+      </c>
       <c r="J140" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5364,11 +5662,13 @@
         <v>-3350.616183529996</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2155</v>
+      </c>
       <c r="J141" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5403,11 +5703,13 @@
         <v>-3350.516183529996</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2150</v>
+      </c>
       <c r="J142" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5442,11 +5744,13 @@
         <v>-3371.216983529996</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2169</v>
+      </c>
       <c r="J143" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5481,11 +5785,13 @@
         <v>-3343.653883529997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2157</v>
+      </c>
       <c r="J144" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5520,11 +5826,13 @@
         <v>-3343.753883529997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2166</v>
+      </c>
       <c r="J145" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5559,11 +5867,13 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2147</v>
+      </c>
       <c r="J146" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5598,11 +5908,13 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2170</v>
+      </c>
       <c r="J147" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5637,11 +5949,13 @@
         <v>-3235.324883529996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2170</v>
+      </c>
       <c r="J148" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5676,11 +5990,13 @@
         <v>-3319.359383529997</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2195</v>
+      </c>
       <c r="J149" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5715,11 +6031,13 @@
         <v>-3487.089783529997</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2183</v>
+      </c>
       <c r="J150" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5754,11 +6072,13 @@
         <v>-2926.125483529996</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2175</v>
+      </c>
       <c r="J151" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5797,7 +6117,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5832,11 +6152,13 @@
         <v>-2986.995483529996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2179</v>
+      </c>
       <c r="J153" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5875,7 +6197,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5914,7 +6236,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5953,7 +6275,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5992,7 +6314,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6031,7 +6353,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6070,7 +6392,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6109,7 +6431,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6148,7 +6470,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6187,7 +6509,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6226,7 +6548,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6265,7 +6587,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6304,7 +6626,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6343,7 +6665,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6382,7 +6704,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6421,7 +6743,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6460,7 +6782,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6499,7 +6821,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6538,7 +6860,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6577,7 +6899,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6616,7 +6938,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6655,7 +6977,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6694,7 +7016,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6733,7 +7055,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6772,7 +7094,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6807,11 +7129,13 @@
         <v>-1406.942924779997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2190</v>
+      </c>
       <c r="J178" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6846,11 +7170,13 @@
         <v>-1406.942924779997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2194</v>
+      </c>
       <c r="J179" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6889,7 +7215,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6924,11 +7250,13 @@
         <v>181.1354351200027</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2194</v>
+      </c>
       <c r="J181" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6967,7 +7295,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7002,11 +7330,13 @@
         <v>198.2529351200027</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2180</v>
+      </c>
       <c r="J183" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7041,11 +7371,13 @@
         <v>51.42723512000273</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2189</v>
+      </c>
       <c r="J184" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7080,11 +7412,13 @@
         <v>-1288.476164879997</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2180</v>
+      </c>
       <c r="J185" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7119,11 +7453,13 @@
         <v>81271.62383512002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2179</v>
+      </c>
       <c r="J186" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7162,7 +7498,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7201,7 +7537,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7240,7 +7576,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7279,7 +7615,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7318,7 +7654,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7357,7 +7693,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7396,7 +7732,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7435,7 +7771,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7474,7 +7810,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7513,7 +7849,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7552,7 +7888,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7591,7 +7927,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7630,7 +7966,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7669,7 +8005,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7708,7 +8044,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7747,7 +8083,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7786,7 +8122,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7825,7 +8161,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7864,7 +8200,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7903,7 +8239,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7942,7 +8278,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7981,7 +8317,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8020,7 +8356,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8059,7 +8395,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8098,7 +8434,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8137,7 +8473,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8176,7 +8512,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8215,7 +8551,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8254,7 +8590,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8293,7 +8629,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8332,7 +8668,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8371,7 +8707,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8410,7 +8746,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8449,7 +8785,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8488,7 +8824,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8527,7 +8863,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8562,19 +8898,19 @@
         <v>79612.14425789003</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>1</v>
+        <v>1.020967894239849</v>
       </c>
       <c r="M223" t="inlineStr"/>
     </row>
@@ -8604,14 +8940,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8643,14 +8973,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8682,14 +9006,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8721,14 +9039,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8760,14 +9072,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8799,14 +9105,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8838,14 +9138,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8877,14 +9171,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8916,14 +9204,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8952,17 +9234,11 @@
         <v>79600.12776930004</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8994,14 +9270,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9030,17 +9300,11 @@
         <v>79701.39707550003</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9069,17 +9333,11 @@
         <v>79684.61997550003</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9111,14 +9369,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9150,14 +9402,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9189,14 +9435,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9225,17 +9465,11 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9267,14 +9501,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9306,16 +9534,10 @@
         <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>1.005762751520824</v>
+        <v>1</v>
       </c>
       <c r="M242" t="inlineStr"/>
     </row>
@@ -9342,7 +9564,7 @@
         <v>79585.62747550003</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9375,7 +9597,7 @@
         <v>79626.03747550004</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9408,7 +9630,7 @@
         <v>79579.50417550004</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9441,7 +9663,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9474,7 +9696,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9507,7 +9729,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9540,7 +9762,7 @@
         <v>79578.01417550004</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9573,7 +9795,7 @@
         <v>79570.46097550004</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9606,7 +9828,7 @@
         <v>79571.00777550004</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9639,7 +9861,7 @@
         <v>79571.10777550004</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9672,7 +9894,7 @@
         <v>79586.03777550004</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9705,7 +9927,7 @@
         <v>79436.61507550004</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9738,7 +9960,7 @@
         <v>79288.09347550005</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9771,7 +9993,7 @@
         <v>79258.14297550004</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9804,7 +10026,7 @@
         <v>79258.24297550005</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9837,7 +10059,7 @@
         <v>79258.34297550005</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9870,7 +10092,7 @@
         <v>79258.44297550006</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9903,7 +10125,7 @@
         <v>79282.20907550005</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9936,7 +10158,7 @@
         <v>79265.88057550005</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9969,7 +10191,7 @@
         <v>79373.99537550005</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10002,7 +10224,7 @@
         <v>79374.19537550004</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10068,7 +10290,7 @@
         <v>78359.57327550004</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10101,7 +10323,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10134,7 +10356,7 @@
         <v>79322.47547550005</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10200,7 +10422,7 @@
         <v>79222.27547550004</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10233,7 +10455,7 @@
         <v>79222.37547550004</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10266,7 +10488,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10365,7 +10587,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10530,7 +10752,7 @@
         <v>78490.09747550004</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10563,7 +10785,7 @@
         <v>78490.19747550004</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10596,7 +10818,7 @@
         <v>78151.79747550005</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10695,7 +10917,7 @@
         <v>74394.29201974004</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10728,7 +10950,7 @@
         <v>73591.87201974004</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10761,7 +10983,7 @@
         <v>73591.97201974005</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10794,7 +11016,7 @@
         <v>73592.07201974005</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10827,7 +11049,7 @@
         <v>73677.56511974006</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
